--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_VOC</t>
+  </si>
+  <si>
+    <t>02_taxi_VOC</t>
+  </si>
+  <si>
+    <t>03_van_VOC</t>
+  </si>
+  <si>
+    <t>04_bus_VOC</t>
+  </si>
+  <si>
+    <t>05_LightTruck_VOC</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_VOC</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_VOC</t>
+  </si>
+  <si>
+    <t>Total_VOC (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1292 +397,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_VOC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_VOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_VOC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_VOC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_VOC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_VOC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_VOC (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1147.889860533188</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.03679032457401316</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.03972458636457247</v>
+      </c>
+      <c r="D2">
         <v>11.50614428471495</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>4.866335108207417</v>
+      </c>
+      <c r="F2">
         <v>4.865960723114227</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>47.84341643051303</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.5068551212508335</v>
       </c>
-      <c r="H2" t="n">
-        <v>1212.649027417355</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>1217.518296787353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1081.753159959422</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.04688962935903639</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.05062937477837668</v>
+      </c>
+      <c r="D3">
         <v>14.13612012122123</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.860657541373423</v>
+      </c>
+      <c r="F3">
         <v>5.360804186481777</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>42.4271806081908</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>1.295296420974352</v>
       </c>
-      <c r="H3" t="n">
-        <v>1145.019450925649</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>1146.883848212442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1011.055307621947</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.03679032457401316</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.03972458636457247</v>
+      </c>
+      <c r="D4">
         <v>7.068060060610614</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.717530038190852</v>
+      </c>
+      <c r="F4">
         <v>4.261152045665002</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>40.62176866741675</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.126344713890741</v>
       </c>
-      <c r="H4" t="n">
-        <v>1064.169423434105</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>1065.889887734086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1172.976195233582</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.03967584022687694</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.04284024019708796</v>
+      </c>
+      <c r="D5">
         <v>9.533662407335251</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>3.005677566833993</v>
+      </c>
+      <c r="F5">
         <v>5.140873758318422</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>33.40012090432045</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.9573930068071298</v>
       </c>
-      <c r="H5" t="n">
-        <v>1222.04792115059</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>1225.056763117394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1090.875463486837</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.04111859805330883</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.04439806711334571</v>
+      </c>
+      <c r="D6">
         <v>11.6705177744966</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F6">
         <v>5.498260704083873</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>34.30282687470747</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.8447585354180558</v>
       </c>
-      <c r="H6" t="n">
-        <v>1143.232945973597</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1145.812520499943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1169.93542739111</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.04256135587974072</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.04595589402960344</v>
+      </c>
+      <c r="D7">
         <v>13.47862616209465</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F7">
         <v>5.773173739288066</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>32.49741493393341</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H7" t="n">
-        <v>1222.459327646335</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>1225.039017241771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1195.781954052122</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.038954461313661</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.04206132673895908</v>
+      </c>
+      <c r="D8">
         <v>13.14987918253138</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>2.86255006365142</v>
+      </c>
+      <c r="F8">
         <v>5.388295490002196</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>27.9838850819982</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H8" t="n">
-        <v>1242.737188917829</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>1245.602845846906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1337.177658727072</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.03606894566079721</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.03894567290644359</v>
+      </c>
+      <c r="D9">
         <v>11.50614428471495</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>4.580080101842273</v>
+      </c>
+      <c r="F9">
         <v>4.783486812552971</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>29.78929702277228</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.6194895926399078</v>
       </c>
-      <c r="H9" t="n">
-        <v>1383.912145385412</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>1388.4951022145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1451.96664478039</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0440041137061726</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.04751372094586118</v>
+      </c>
+      <c r="D10">
         <v>10.51990334602511</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>8.587650190954262</v>
+      </c>
+      <c r="F10">
         <v>4.591047687910033</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>22.56764925967596</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.3379034141672224</v>
       </c>
-      <c r="H10" t="n">
-        <v>1490.027152601875</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>1498.618312400069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1543.189680054551</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.02741239870220588</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.02959871140889713</v>
+      </c>
+      <c r="D11">
         <v>9.040541937990319</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>9.160160203684546</v>
+      </c>
+      <c r="F11">
         <v>2.556691227399002</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>4.513529851935195</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H11" t="n">
-        <v>1559.722076120439</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>1568.88442263683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1124.32390975403</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.02308412522291022</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.0249252306601239</v>
+      </c>
+      <c r="D12">
         <v>9.20491542777196</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>5.581972624120271</v>
+      </c>
+      <c r="F12">
         <v>2.281778192194808</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>9.929765674257421</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H12" t="n">
-        <v>1145.876087644866</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>1151.459901374423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>980.6476291972268</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.01587033609075078</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.01713609607883518</v>
+      </c>
+      <c r="D13">
         <v>5.424325162794192</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>7.442630165493693</v>
+      </c>
+      <c r="F13">
         <v>1.429547783061807</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>16.2487074669667</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H13" t="n">
-        <v>1004.047666124613</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>1011.491562050095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>776.9161837516014</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.01370619935110294</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.01479935570444856</v>
+      </c>
+      <c r="D14">
         <v>5.58869865257584</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>4.723207605024844</v>
+      </c>
+      <c r="F14">
         <v>0.9621956232146778</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>12.63788358541854</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H14" t="n">
-        <v>796.4002539906343</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>801.1245547520125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>548.8585955661996</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.0194772306568305</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.02103066336947954</v>
+      </c>
+      <c r="D15">
         <v>3.61621677519613</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>2.71942256046885</v>
+      </c>
+      <c r="F15">
         <v>0.8247391056125809</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>10.83247164464447</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>564.1515003223095</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>566.8724763154911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>337.5252305143943</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.01587033609075078</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.01713609607883518</v>
+      </c>
+      <c r="D16">
         <v>2.465602346724631</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>1.43127503182571</v>
+      </c>
+      <c r="F16">
         <v>0.6322999809696456</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>9.929765674257421</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>350.5687688524367</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>352.0013096442505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>262.2662264132119</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.02236274630969427</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.02414631720199503</v>
+      </c>
+      <c r="D17">
         <v>0.8218674489082115</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.2862550063651421</v>
+      </c>
+      <c r="F17">
         <v>0.3573869457654517</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>11.73517761503149</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>275.2030211692267</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>275.4910597464842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>171.0431911390512</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.02019860957004644</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.02180957682760842</v>
+      </c>
+      <c r="D18">
         <v>1.47936140803478</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.5725100127302841</v>
+      </c>
+      <c r="F18">
         <v>0.6597912844900649</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>7.221647763096309</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>180.4241902042424</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>180.9983111842302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>101.8657227228127</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.0180344728303986</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.0194728364532218</v>
+      </c>
+      <c r="D19">
         <v>1.972481877379707</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.143127503182571</v>
+      </c>
+      <c r="F19">
         <v>0.302404338724613</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>15.34600149657965</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H19" t="n">
-        <v>119.5609621440216</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>119.705528010827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>123.1510976201169</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.01370619935110294</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.01479935570444856</v>
+      </c>
+      <c r="D20">
         <v>2.465602346724631</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F20">
         <v>0.6048086774492261</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>12.63788358541854</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H20" t="n">
-        <v>138.929415664755</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>139.359891330656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>211.3333650518055</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.006492410218943499</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.007010221123159847</v>
+      </c>
+      <c r="D21">
         <v>3.451843285414487</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>1.001892522277997</v>
+      </c>
+      <c r="F21">
         <v>1.072160837296355</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>20.76223731890189</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>236.6260989036372</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>237.6285092368194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>424.9473059854649</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.005771031305727556</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.006231307665030975</v>
+      </c>
+      <c r="D22">
         <v>5.09557818323091</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>4.150697592294558</v>
+      </c>
+      <c r="F22">
         <v>3.024043387246131</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>37.91365075625559</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H22" t="n">
-        <v>471.0989838148924</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>475.2501416835462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>807.3238621763215</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.012984820437887</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.01402044224631969</v>
+      </c>
+      <c r="D23">
         <v>8.711794958427037</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>12.02271026733597</v>
+      </c>
+      <c r="F23">
         <v>4.453591170307938</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>53.25965225283529</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.6758068283344447</v>
       </c>
-      <c r="H23" t="n">
-        <v>874.4376922066641</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>886.4614380958085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1161.573315824312</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.0194772306568305</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.02103066336947954</v>
+      </c>
+      <c r="D24">
         <v>9.20491542777196</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>13.02460278961396</v>
+      </c>
+      <c r="F24">
         <v>4.701012901991711</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>67.70294777902788</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>1.013710242501667</v>
       </c>
-      <c r="H24" t="n">
-        <v>1244.215379406262</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>1257.241535628588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1262.678846586507</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.03318343000793345</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.0358300190739281</v>
+      </c>
+      <c r="D25">
         <v>11.50614428471495</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>6.154482636850553</v>
+      </c>
+      <c r="F25">
         <v>4.783486812552971</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>46.03800448973896</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H25" t="n">
-        <v>1325.490203489078</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>1331.647332714995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1183.618882682234</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.03534756674758127</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.03816675944831473</v>
+      </c>
+      <c r="D26">
         <v>11.17739730515168</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>5.009462611389987</v>
+      </c>
+      <c r="F26">
         <v>5.058399847757165</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>50.55153434167415</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H26" t="n">
-        <v>1250.892099629121</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>1255.904381433211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1115.201606226614</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.0454468715326045</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.04907154786211893</v>
+      </c>
+      <c r="D27">
         <v>13.64299965187631</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>2.003785044555995</v>
+      </c>
+      <c r="F27">
         <v>5.55324331112471</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>44.2325925489649</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>1.182661949585278</v>
       </c>
-      <c r="H27" t="n">
-        <v>1179.858550559698</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>1181.865960280583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1130.405445438974</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.04183997696652478</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.04517698057147457</v>
+      </c>
+      <c r="D28">
         <v>10.68427683580675</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>2.003785044555995</v>
+      </c>
+      <c r="F28">
         <v>4.975925937195907</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>46.94071046012598</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H28" t="n">
-        <v>1193.780322713098</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>1195.787444761259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1179.817922879144</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.04472549261938855</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.04829263440399006</v>
+      </c>
+      <c r="D29">
         <v>9.040541937990319</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>2.146912547738566</v>
+      </c>
+      <c r="F29">
         <v>4.975925937195907</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>37.91365075625559</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H29" t="n">
-        <v>1232.243304888762</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1234.393784578285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1224.669248555607</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.038954461313661</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.04206132673895908</v>
+      </c>
+      <c r="D30">
         <v>7.561180529955542</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>2.433167554103708</v>
+      </c>
+      <c r="F30">
         <v>6.185543292094356</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>42.4271806081908</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.6758068283344447</v>
       </c>
-      <c r="H30" t="n">
-        <v>1281.557914275495</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>1283.994188695024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1100.757958974872</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.038954461313661</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.04206132673895908</v>
+      </c>
+      <c r="D31">
         <v>10.02678287668018</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F31">
         <v>4.838469419593808</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>29.78929702277228</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.3379034141672224</v>
       </c>
-      <c r="H31" t="n">
-        <v>1145.789366169399</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1148.36876809211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1226.189632476843</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.03462618783436533</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.03738784599018585</v>
+      </c>
+      <c r="D32">
         <v>15.12236105991108</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F32">
         <v>5.55324331112471</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>27.9838850819982</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.7884412997235188</v>
       </c>
-      <c r="H32" t="n">
-        <v>1275.672189417435</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>1278.251246132877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1232.271168161787</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.03606894566079721</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.03894567290644359</v>
+      </c>
+      <c r="D33">
         <v>12.8211322029681</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>3.721315082746846</v>
+      </c>
+      <c r="F33">
         <v>5.140873758318422</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>35.20553284509452</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H33" t="n">
-        <v>1286.206899977857</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>1289.93109178785</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1470.97144379584</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.03101929326828561</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.03349327869954149</v>
+      </c>
+      <c r="D34">
         <v>11.17739730515168</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>7.585757668676263</v>
+      </c>
+      <c r="F34">
         <v>4.288643349185421</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>19.85953134851484</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H34" t="n">
-        <v>1506.891207448906</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>1514.479439103013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1535.587760448371</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.02380550413612616</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.02570414411825277</v>
+      </c>
+      <c r="D35">
         <v>9.20491542777196</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>8.444522687771689</v>
+      </c>
+      <c r="F35">
         <v>3.326447725970743</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>12.63788358541854</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H35" t="n">
-        <v>1561.231350577224</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>1569.677771904978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1155.491780139368</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.0194772306568305</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.02103066336947954</v>
+      </c>
+      <c r="D36">
         <v>9.369288917553607</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>8.873905197319406</v>
+      </c>
+      <c r="F36">
         <v>2.061847764031453</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>11.73517761503149</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H36" t="n">
-        <v>1178.959157845114</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>1187.834616475146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1072.630856432005</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.0180344728303986</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.0194728364532218</v>
+      </c>
+      <c r="D37">
         <v>5.424325162794192</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>8.730777694136837</v>
+      </c>
+      <c r="F37">
         <v>1.786934728827259</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>15.34600149657965</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H37" t="n">
-        <v>1095.318786764426</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>1104.051002822185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>852.9353798134018</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.01082068369823917</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.01168370187193308</v>
+      </c>
+      <c r="D38">
         <v>4.43808422410434</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>6.011355133667985</v>
+      </c>
+      <c r="F38">
         <v>1.154634747857614</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>15.34600149657965</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H38" t="n">
-        <v>873.9975554370309</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>880.0097735888725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>610.4341443762581</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.01514895717753483</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.01635718262070631</v>
+      </c>
+      <c r="D39">
         <v>2.136855367161349</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F39">
         <v>0.8247391056125809</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>9.027059703870389</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.1689517070836112</v>
       </c>
-      <c r="H39" t="n">
-        <v>622.6068992171636</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>625.1844024998931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>359.5707973723164</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.01731309391718266</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.01869392299509293</v>
+      </c>
+      <c r="D40">
         <v>2.30122885694299</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>1.145020025460568</v>
+      </c>
+      <c r="F40">
         <v>0.6597912844900649</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>12.63788358541854</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>375.1870141930852</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>376.3334150476236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>277.4700656255718</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.0180344728303986</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.0194728364532218</v>
+      </c>
+      <c r="D41">
         <v>0.8218674489082115</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.5725100127302841</v>
+      </c>
+      <c r="F41">
         <v>0.522334766887968</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>15.34600149657965</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>294.1783038107781</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>294.7522521871312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>180.1654946664673</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.02019860957004644</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.02180957682760842</v>
+      </c>
+      <c r="D42">
         <v>1.314987918253138</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.715637515912855</v>
+      </c>
+      <c r="F42">
         <v>0.5498260704083873</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>13.54058955580559</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>195.5910968205044</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>196.3083453036748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>126.1918654625889</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.02236274630969427</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.02414631720199503</v>
+      </c>
+      <c r="D43">
         <v>2.465602346724631</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.2862550063651421</v>
+      </c>
+      <c r="F43">
         <v>0.4398608563267099</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>9.027059703870389</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H43" t="n">
-        <v>138.2030683515148</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>138.4911069287722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>139.8753207537129</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.02236274630969427</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.02414631720199503</v>
+      </c>
+      <c r="D44">
         <v>1.643734897816423</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.5725100127302841</v>
+      </c>
+      <c r="F44">
         <v>0.6048086774492261</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>5.416235822322235</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>147.5624628976105</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>148.1367564812331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>188.5276062332653</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.007213789132159446</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.007789134581288717</v>
+      </c>
+      <c r="D45">
         <v>3.123096305851203</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.8587650190954262</v>
+      </c>
+      <c r="F45">
         <v>1.017178230255517</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>11.73517761503149</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H45" t="n">
-        <v>204.6355411163138</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>205.4948814808584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>437.870569315971</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.005771031305727556</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.006231307665030975</v>
+      </c>
+      <c r="D46">
         <v>4.931204693449263</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>4.293825095477131</v>
+      </c>
+      <c r="F46">
         <v>3.134008601327808</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>39.71906269702968</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H46" t="n">
-        <v>485.7732508104726</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>490.067536182309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>832.4101968767156</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.01226344152467105</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.01324152878819082</v>
+      </c>
+      <c r="D47">
         <v>8.383047978863758</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>12.45209277688368</v>
+      </c>
+      <c r="F47">
         <v>4.618538991430454</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>55.96777016399639</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.6194895926399078</v>
       </c>
-      <c r="H47" t="n">
-        <v>902.0113070451707</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>914.4643779093179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1197.302337973358</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.01875585174361456</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.02025174991135067</v>
+      </c>
+      <c r="D48">
         <v>8.876168448208681</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>13.59711280234424</v>
+      </c>
+      <c r="F48">
         <v>4.865960723114227</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>71.31377166057607</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.9573930068071298</v>
       </c>
-      <c r="H48" t="n">
-        <v>1283.334387663808</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>1296.93299636432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1302.208828538643</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.0324620510947175</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.03505110561579923</v>
+      </c>
+      <c r="D49">
         <v>11.17739730515168</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>6.440737643215694</v>
+      </c>
+      <c r="F49">
         <v>4.975925937195907</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>48.74612240090006</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H49" t="n">
-        <v>1367.534956882847</v>
+      <c r="I49">
+        <v>1373.978283580584</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1147.889860533188</v>
+        <v>1663.941215225065</v>
       </c>
       <c r="C2">
-        <v>0.03972458636457247</v>
+        <v>0.05758337866934113</v>
       </c>
       <c r="D2">
-        <v>11.50614428471495</v>
+        <v>16.67890654140856</v>
       </c>
       <c r="E2">
-        <v>4.866335108207417</v>
+        <v>7.054070109027623</v>
       </c>
       <c r="F2">
-        <v>4.865960723114227</v>
+        <v>7.053527413418625</v>
       </c>
       <c r="G2">
-        <v>47.84341643051303</v>
+        <v>69.35215233883936</v>
       </c>
       <c r="H2">
-        <v>0.5068551212508335</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I2">
-        <v>1217.518296787353</v>
+        <v>1764.872174560451</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1081.753159959422</v>
+        <v>1568.071754480309</v>
       </c>
       <c r="C3">
-        <v>0.05062937477837668</v>
+        <v>0.07339058065700341</v>
       </c>
       <c r="D3">
-        <v>14.13612012122123</v>
+        <v>20.49122803658765</v>
       </c>
       <c r="E3">
-        <v>1.860657541373423</v>
+        <v>2.697144453451737</v>
       </c>
       <c r="F3">
-        <v>5.360804186481777</v>
+        <v>7.770835285969672</v>
       </c>
       <c r="G3">
-        <v>42.4271806081908</v>
+        <v>61.50096528161225</v>
       </c>
       <c r="H3">
-        <v>1.295296420974352</v>
+        <v>1.877616638055865</v>
       </c>
       <c r="I3">
-        <v>1146.883848212442</v>
+        <v>1662.482934756643</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1011.055307621947</v>
+        <v>1465.590606787641</v>
       </c>
       <c r="C4">
-        <v>0.03972458636457247</v>
+        <v>0.05758337866934113</v>
       </c>
       <c r="D4">
-        <v>7.068060060610614</v>
+        <v>10.24561401829383</v>
       </c>
       <c r="E4">
-        <v>1.717530038190852</v>
+        <v>2.489671803186218</v>
       </c>
       <c r="F4">
-        <v>4.261152045665002</v>
+        <v>6.176817791411789</v>
       </c>
       <c r="G4">
-        <v>40.62176866741675</v>
+        <v>58.88390292920324</v>
       </c>
       <c r="H4">
-        <v>1.126344713890741</v>
+        <v>1.632710120048579</v>
       </c>
       <c r="I4">
-        <v>1065.889887734086</v>
+        <v>1545.076906828454</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1172.976195233582</v>
+        <v>1700.305493438592</v>
       </c>
       <c r="C5">
-        <v>0.04284024019708796</v>
+        <v>0.0620997220943875</v>
       </c>
       <c r="D5">
-        <v>9.533662407335251</v>
+        <v>13.81966542002423</v>
       </c>
       <c r="E5">
-        <v>3.005677566833993</v>
+        <v>4.356925655575882</v>
       </c>
       <c r="F5">
-        <v>5.140873758318422</v>
+        <v>7.452031787058096</v>
       </c>
       <c r="G5">
-        <v>33.40012090432045</v>
+        <v>48.41565351956709</v>
       </c>
       <c r="H5">
-        <v>0.9573930068071298</v>
+        <v>1.387803602041292</v>
       </c>
       <c r="I5">
-        <v>1225.056763117394</v>
+        <v>1775.799673144953</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1090.875463486837</v>
+        <v>1581.295128376138</v>
       </c>
       <c r="C6">
-        <v>0.04439806711334571</v>
+        <v>0.06435789380691068</v>
       </c>
       <c r="D6">
-        <v>11.6705177744966</v>
+        <v>16.91717663485724</v>
       </c>
       <c r="E6">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F6">
-        <v>5.498260704083873</v>
+        <v>7.970087472789407</v>
       </c>
       <c r="G6">
-        <v>34.30282687470747</v>
+        <v>49.72418469577168</v>
       </c>
       <c r="H6">
-        <v>0.8447585354180558</v>
+        <v>1.224532590036434</v>
       </c>
       <c r="I6">
-        <v>1145.812520499943</v>
+        <v>1660.929975368179</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1169.93542739111</v>
+        <v>1695.897702139983</v>
       </c>
       <c r="C7">
-        <v>0.04595589402960344</v>
+        <v>0.06661606551943386</v>
       </c>
       <c r="D7">
-        <v>13.47862616209465</v>
+        <v>19.53814766279286</v>
       </c>
       <c r="E7">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F7">
-        <v>5.773173739288066</v>
+        <v>8.368591846428876</v>
       </c>
       <c r="G7">
-        <v>32.49741493393341</v>
+        <v>47.10712234336257</v>
       </c>
       <c r="H7">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I7">
-        <v>1225.039017241771</v>
+        <v>1775.773949340898</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1195.781954052122</v>
+        <v>1733.363928178164</v>
       </c>
       <c r="C8">
-        <v>0.04206132673895908</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D8">
-        <v>13.14987918253138</v>
+        <v>19.06160747589549</v>
       </c>
       <c r="E8">
-        <v>2.86255006365142</v>
+        <v>4.149453005310361</v>
       </c>
       <c r="F8">
-        <v>5.388295490002196</v>
+        <v>7.810685723333618</v>
       </c>
       <c r="G8">
-        <v>27.9838850819982</v>
+        <v>40.56446646233999</v>
       </c>
       <c r="H8">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I8">
-        <v>1245.602845846906</v>
+        <v>1805.582560023298</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1337.177658727072</v>
+        <v>1938.326223563503</v>
       </c>
       <c r="C9">
-        <v>0.03894567290644359</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D9">
-        <v>11.50614428471495</v>
+        <v>16.67890654140856</v>
       </c>
       <c r="E9">
-        <v>4.580080101842273</v>
+        <v>6.639124808496578</v>
       </c>
       <c r="F9">
-        <v>4.783486812552971</v>
+        <v>6.933976101326785</v>
       </c>
       <c r="G9">
-        <v>29.78929702277228</v>
+        <v>43.18152881474903</v>
       </c>
       <c r="H9">
-        <v>0.6194895926399078</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I9">
-        <v>1388.4951022145</v>
+        <v>2012.714204688324</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1451.96664478039</v>
+        <v>2104.720345086009</v>
       </c>
       <c r="C10">
-        <v>0.04751372094586118</v>
+        <v>0.06887423723195704</v>
       </c>
       <c r="D10">
-        <v>10.51990334602511</v>
+        <v>15.24928598071639</v>
       </c>
       <c r="E10">
-        <v>8.587650190954262</v>
+        <v>12.44835901593109</v>
       </c>
       <c r="F10">
-        <v>4.591047687910033</v>
+        <v>6.655023039779157</v>
       </c>
       <c r="G10">
-        <v>22.56764925967596</v>
+        <v>32.71327940511292</v>
       </c>
       <c r="H10">
-        <v>0.3379034141672224</v>
+        <v>0.4898130360145737</v>
       </c>
       <c r="I10">
-        <v>1498.618312400069</v>
+        <v>2172.344979800795</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1543.189680054551</v>
+        <v>2236.954084044292</v>
       </c>
       <c r="C11">
-        <v>0.02959871140889713</v>
+        <v>0.04290526253794045</v>
       </c>
       <c r="D11">
-        <v>9.040541937990319</v>
+        <v>13.10485513967815</v>
       </c>
       <c r="E11">
-        <v>9.160160203684546</v>
+        <v>13.27824961699316</v>
       </c>
       <c r="F11">
-        <v>2.556691227399002</v>
+        <v>3.706090674847076</v>
       </c>
       <c r="G11">
-        <v>4.513529851935195</v>
+        <v>6.54265588102258</v>
       </c>
       <c r="H11">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I11">
-        <v>1568.88442263683</v>
+        <v>2274.200289161387</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1124.32390975403</v>
+        <v>1629.780832660842</v>
       </c>
       <c r="C12">
-        <v>0.0249252306601239</v>
+        <v>0.03613074740037091</v>
       </c>
       <c r="D12">
-        <v>9.20491542777196</v>
+        <v>13.34312523312685</v>
       </c>
       <c r="E12">
-        <v>5.581972624120271</v>
+        <v>8.091433360355209</v>
       </c>
       <c r="F12">
-        <v>2.281778192194808</v>
+        <v>3.307586301207604</v>
       </c>
       <c r="G12">
-        <v>9.929765674257421</v>
+        <v>14.39384293824968</v>
       </c>
       <c r="H12">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I12">
-        <v>1151.459901374423</v>
+        <v>1669.116222253186</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>980.6476291972268</v>
+        <v>1421.512693801546</v>
       </c>
       <c r="C13">
-        <v>0.01713609607883518</v>
+        <v>0.024839888837755</v>
       </c>
       <c r="D13">
-        <v>5.424325162794192</v>
+        <v>7.862913083806889</v>
       </c>
       <c r="E13">
-        <v>7.442630165493693</v>
+        <v>10.78857781380695</v>
       </c>
       <c r="F13">
-        <v>1.429547783061807</v>
+        <v>2.072222742925246</v>
       </c>
       <c r="G13">
-        <v>16.2487074669667</v>
+        <v>23.55356117168128</v>
       </c>
       <c r="H13">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I13">
-        <v>1011.491562050095</v>
+        <v>1466.222986032616</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>776.9161837516014</v>
+        <v>1126.190676794712</v>
       </c>
       <c r="C14">
-        <v>0.01479935570444856</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D14">
-        <v>5.58869865257584</v>
+        <v>8.101183177255582</v>
       </c>
       <c r="E14">
-        <v>4.723207605024844</v>
+        <v>6.8465974587621</v>
       </c>
       <c r="F14">
-        <v>0.9621956232146778</v>
+        <v>1.394765307738146</v>
       </c>
       <c r="G14">
-        <v>12.63788358541854</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="H14">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I14">
-        <v>801.1245547520125</v>
+        <v>1161.282289366612</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>548.8585955661996</v>
+        <v>795.6063293990045</v>
       </c>
       <c r="C15">
-        <v>0.02103066336947954</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D15">
-        <v>3.61621677519613</v>
+        <v>5.241942055871259</v>
       </c>
       <c r="E15">
-        <v>2.71942256046885</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F15">
-        <v>0.8247391056125809</v>
+        <v>1.195513120918411</v>
       </c>
       <c r="G15">
-        <v>10.83247164464447</v>
+        <v>15.7023741144542</v>
       </c>
       <c r="I15">
-        <v>566.8724763154911</v>
+        <v>821.7186243634123</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>337.5252305143943</v>
+        <v>489.2648341456484</v>
       </c>
       <c r="C16">
-        <v>0.01713609607883518</v>
+        <v>0.024839888837755</v>
       </c>
       <c r="D16">
-        <v>2.465602346724631</v>
+        <v>3.574051401730405</v>
       </c>
       <c r="E16">
-        <v>1.43127503182571</v>
+        <v>2.074726502655181</v>
       </c>
       <c r="F16">
-        <v>0.6322999809696456</v>
+        <v>0.9165600593707817</v>
       </c>
       <c r="G16">
-        <v>9.929765674257421</v>
+        <v>14.39384293824968</v>
       </c>
       <c r="I16">
-        <v>352.0013096442505</v>
+        <v>510.2488549364921</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>262.2662264132119</v>
+        <v>380.1719995050644</v>
       </c>
       <c r="C17">
-        <v>0.02414631720199503</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D17">
-        <v>0.8218674489082115</v>
+        <v>1.191350467243468</v>
       </c>
       <c r="E17">
-        <v>0.2862550063651421</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F17">
-        <v>0.3573869457654517</v>
+        <v>0.5180556857313114</v>
       </c>
       <c r="G17">
-        <v>11.73517761503149</v>
+        <v>17.01090529065873</v>
       </c>
       <c r="I17">
-        <v>275.4910597464842</v>
+        <v>399.3422579107731</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>171.0431911390512</v>
+        <v>247.9382605467812</v>
       </c>
       <c r="C18">
-        <v>0.02180957682760842</v>
+        <v>0.03161440397532454</v>
       </c>
       <c r="D18">
-        <v>1.47936140803478</v>
+        <v>2.144430841038243</v>
       </c>
       <c r="E18">
-        <v>0.5725100127302841</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F18">
-        <v>0.6597912844900649</v>
+        <v>0.9564104967347288</v>
       </c>
       <c r="G18">
-        <v>7.221647763096309</v>
+        <v>10.46824940963613</v>
       </c>
       <c r="I18">
-        <v>180.9983111842302</v>
+        <v>262.3688562992276</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>101.8657227228127</v>
+        <v>147.6610085034163</v>
       </c>
       <c r="C19">
-        <v>0.0194728364532218</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D19">
-        <v>1.972481877379707</v>
+        <v>2.859241121384323</v>
       </c>
       <c r="E19">
-        <v>0.143127503182571</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F19">
-        <v>0.302404338724613</v>
+        <v>0.4383548110034173</v>
       </c>
       <c r="G19">
-        <v>15.34600149657965</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="H19">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I19">
-        <v>119.705528010827</v>
+        <v>173.5209697339554</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>123.1510976201169</v>
+        <v>178.5155475936824</v>
       </c>
       <c r="C20">
-        <v>0.01479935570444856</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D20">
-        <v>2.465602346724631</v>
+        <v>3.574051401730405</v>
       </c>
       <c r="E20">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F20">
-        <v>0.6048086774492261</v>
+        <v>0.8767096220068347</v>
       </c>
       <c r="G20">
-        <v>12.63788358541854</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="H20">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I20">
-        <v>139.359891330656</v>
+        <v>202.0112511723509</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>211.3333650518055</v>
+        <v>306.3414952533564</v>
       </c>
       <c r="C21">
-        <v>0.007010221123159847</v>
+        <v>0.01016177270635432</v>
       </c>
       <c r="D21">
-        <v>3.451843285414487</v>
+        <v>5.003671962422564</v>
       </c>
       <c r="E21">
-        <v>1.001892522277997</v>
+        <v>1.452308551858627</v>
       </c>
       <c r="F21">
-        <v>1.072160837296355</v>
+        <v>1.554167057193935</v>
       </c>
       <c r="G21">
-        <v>20.76223731890189</v>
+        <v>30.09621705270388</v>
       </c>
       <c r="I21">
-        <v>237.6285092368194</v>
+        <v>344.4580216502417</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>424.9473059854649</v>
+        <v>615.9888339806697</v>
       </c>
       <c r="C22">
-        <v>0.006231307665030975</v>
+        <v>0.009032686850092727</v>
       </c>
       <c r="D22">
-        <v>5.09557818323091</v>
+        <v>7.386372896909505</v>
       </c>
       <c r="E22">
-        <v>4.150697592294558</v>
+        <v>6.016706857700027</v>
       </c>
       <c r="F22">
-        <v>3.024043387246131</v>
+        <v>4.383548110034173</v>
       </c>
       <c r="G22">
-        <v>37.91365075625559</v>
+        <v>54.95830940058969</v>
       </c>
       <c r="H22">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I22">
-        <v>475.2501416835462</v>
+        <v>688.9060749447581</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>807.3238621763215</v>
+        <v>1170.268589780807</v>
       </c>
       <c r="C23">
-        <v>0.01402044224631969</v>
+        <v>0.02032354541270864</v>
       </c>
       <c r="D23">
-        <v>8.711794958427037</v>
+        <v>12.62831495278076</v>
       </c>
       <c r="E23">
-        <v>12.02271026733597</v>
+        <v>17.42770262230353</v>
       </c>
       <c r="F23">
-        <v>4.453591170307938</v>
+        <v>6.45577085295942</v>
       </c>
       <c r="G23">
-        <v>53.25965225283529</v>
+        <v>77.2033393960665</v>
       </c>
       <c r="H23">
-        <v>0.6758068283344447</v>
+        <v>0.9796260720291473</v>
       </c>
       <c r="I23">
-        <v>886.4614380958085</v>
+        <v>1284.983667222359</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1161.573315824312</v>
+        <v>1683.776276068807</v>
       </c>
       <c r="C24">
-        <v>0.02103066336947954</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D24">
-        <v>9.20491542777196</v>
+        <v>13.34312523312685</v>
       </c>
       <c r="E24">
-        <v>13.02460278961396</v>
+        <v>18.88001117416215</v>
       </c>
       <c r="F24">
-        <v>4.701012901991711</v>
+        <v>6.814424789234943</v>
       </c>
       <c r="G24">
-        <v>67.70294777902788</v>
+        <v>98.13983821533873</v>
       </c>
       <c r="H24">
-        <v>1.013710242501667</v>
+        <v>1.469439108043721</v>
       </c>
       <c r="I24">
-        <v>1257.241535628588</v>
+        <v>1822.453599906832</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1262.678846586507</v>
+        <v>1830.335336747571</v>
       </c>
       <c r="C25">
-        <v>0.0358300190739281</v>
+        <v>0.05193794938803319</v>
       </c>
       <c r="D25">
-        <v>11.50614428471495</v>
+        <v>16.67890654140856</v>
       </c>
       <c r="E25">
-        <v>6.154482636850553</v>
+        <v>8.921323961417283</v>
       </c>
       <c r="F25">
-        <v>4.783486812552971</v>
+        <v>6.933976101326785</v>
       </c>
       <c r="G25">
-        <v>46.03800448973896</v>
+        <v>66.73508998643032</v>
       </c>
       <c r="H25">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I25">
-        <v>1331.647332714995</v>
+        <v>1930.309655335562</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1183.618882682234</v>
+        <v>1715.732762983725</v>
       </c>
       <c r="C26">
-        <v>0.03816675944831473</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D26">
-        <v>11.17739730515168</v>
+        <v>16.20236635451116</v>
       </c>
       <c r="E26">
-        <v>5.009462611389987</v>
+        <v>7.261542759293137</v>
       </c>
       <c r="F26">
-        <v>5.058399847757165</v>
+        <v>7.332480474966253</v>
       </c>
       <c r="G26">
-        <v>50.55153434167415</v>
+        <v>73.27774586745292</v>
       </c>
       <c r="H26">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I26">
-        <v>1255.904381433211</v>
+        <v>1820.515307694925</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1115.201606226614</v>
+        <v>1616.557458765013</v>
       </c>
       <c r="C27">
-        <v>0.04907154786211893</v>
+        <v>0.07113240894448022</v>
       </c>
       <c r="D27">
-        <v>13.64299965187631</v>
+        <v>19.77641775624157</v>
       </c>
       <c r="E27">
-        <v>2.003785044555995</v>
+        <v>2.904617103717254</v>
       </c>
       <c r="F27">
-        <v>5.55324331112471</v>
+        <v>8.049788347517302</v>
       </c>
       <c r="G27">
-        <v>44.2325925489649</v>
+        <v>64.11802763402129</v>
       </c>
       <c r="H27">
-        <v>1.182661949585278</v>
+        <v>1.714345626051008</v>
       </c>
       <c r="I27">
-        <v>1181.865960280583</v>
+        <v>1713.191787641506</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1130.405445438974</v>
+        <v>1638.59641525806</v>
       </c>
       <c r="C28">
-        <v>0.04517698057147457</v>
+        <v>0.06548697966317228</v>
       </c>
       <c r="D28">
-        <v>10.68427683580675</v>
+        <v>15.48755607416509</v>
       </c>
       <c r="E28">
-        <v>2.003785044555995</v>
+        <v>2.904617103717254</v>
       </c>
       <c r="F28">
-        <v>4.975925937195907</v>
+        <v>7.212929162874412</v>
       </c>
       <c r="G28">
-        <v>46.94071046012598</v>
+        <v>68.04362116263492</v>
       </c>
       <c r="H28">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I28">
-        <v>1195.787444761259</v>
+        <v>1733.371887319146</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1179.817922879144</v>
+        <v>1710.223023860464</v>
       </c>
       <c r="C29">
-        <v>0.04829263440399006</v>
+        <v>0.07000332308821863</v>
       </c>
       <c r="D29">
-        <v>9.040541937990319</v>
+        <v>13.10485513967815</v>
       </c>
       <c r="E29">
-        <v>2.146912547738566</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F29">
-        <v>4.975925937195907</v>
+        <v>7.212929162874412</v>
       </c>
       <c r="G29">
-        <v>37.91365075625559</v>
+        <v>54.95830940058969</v>
       </c>
       <c r="H29">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I29">
-        <v>1234.393784578285</v>
+        <v>1789.334294688697</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1224.669248555607</v>
+        <v>1775.237945514953</v>
       </c>
       <c r="C30">
-        <v>0.04206132673895908</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D30">
-        <v>7.561180529955542</v>
+        <v>10.96042429863991</v>
       </c>
       <c r="E30">
-        <v>2.433167554103708</v>
+        <v>3.527035054513811</v>
       </c>
       <c r="F30">
-        <v>6.185543292094356</v>
+        <v>8.966348406888084</v>
       </c>
       <c r="G30">
-        <v>42.4271806081908</v>
+        <v>61.50096528161225</v>
       </c>
       <c r="H30">
-        <v>0.6758068283344447</v>
+        <v>0.9796260720291473</v>
       </c>
       <c r="I30">
-        <v>1283.994188695024</v>
+        <v>1861.233315264874</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1100.757958974872</v>
+        <v>1595.620450096619</v>
       </c>
       <c r="C31">
-        <v>0.04206132673895908</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D31">
-        <v>10.02678287668018</v>
+        <v>14.53447570037031</v>
       </c>
       <c r="E31">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F31">
-        <v>4.838469419593808</v>
+        <v>7.013676976054677</v>
       </c>
       <c r="G31">
-        <v>29.78929702277228</v>
+        <v>43.18152881474903</v>
       </c>
       <c r="H31">
-        <v>0.3379034141672224</v>
+        <v>0.4898130360145737</v>
       </c>
       <c r="I31">
-        <v>1148.36876809211</v>
+        <v>1664.635422964825</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1226.189632476843</v>
+        <v>1777.441841164258</v>
       </c>
       <c r="C32">
-        <v>0.03738784599018585</v>
+        <v>0.05419612110055635</v>
       </c>
       <c r="D32">
-        <v>15.12236105991108</v>
+        <v>21.92084859727982</v>
       </c>
       <c r="E32">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F32">
-        <v>5.55324331112471</v>
+        <v>8.049788347517302</v>
       </c>
       <c r="G32">
-        <v>27.9838850819982</v>
+        <v>40.56446646233999</v>
       </c>
       <c r="H32">
-        <v>0.7884412997235188</v>
+        <v>1.142897084034006</v>
       </c>
       <c r="I32">
-        <v>1278.251246132877</v>
+        <v>1852.908545481309</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1232.271168161787</v>
+        <v>1786.257423761477</v>
       </c>
       <c r="C33">
-        <v>0.03894567290644359</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D33">
-        <v>12.8211322029681</v>
+        <v>18.58506728899809</v>
       </c>
       <c r="E33">
-        <v>3.721315082746846</v>
+        <v>5.394288906903474</v>
       </c>
       <c r="F33">
-        <v>5.140873758318422</v>
+        <v>7.452031787058096</v>
       </c>
       <c r="G33">
-        <v>35.20553284509452</v>
+        <v>51.03271587197616</v>
       </c>
       <c r="H33">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I33">
-        <v>1289.93109178785</v>
+        <v>1869.839243487257</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1470.97144379584</v>
+        <v>2132.269040702318</v>
       </c>
       <c r="C34">
-        <v>0.03349327869954149</v>
+        <v>0.04855069181924841</v>
       </c>
       <c r="D34">
-        <v>11.17739730515168</v>
+        <v>16.20236635451116</v>
       </c>
       <c r="E34">
-        <v>7.585757668676263</v>
+        <v>10.99605046407247</v>
       </c>
       <c r="F34">
-        <v>4.288643349185421</v>
+        <v>6.216668228775738</v>
       </c>
       <c r="G34">
-        <v>19.85953134851484</v>
+        <v>28.78768587649937</v>
       </c>
       <c r="H34">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I34">
-        <v>1514.479439103013</v>
+        <v>2195.33671737802</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1535.587760448371</v>
+        <v>2225.934605797769</v>
       </c>
       <c r="C35">
-        <v>0.02570414411825277</v>
+        <v>0.0372598332566325</v>
       </c>
       <c r="D35">
-        <v>9.20491542777196</v>
+        <v>13.34312523312685</v>
       </c>
       <c r="E35">
-        <v>8.444522687771689</v>
+        <v>12.24088636566558</v>
       </c>
       <c r="F35">
-        <v>3.326447725970743</v>
+        <v>4.821902921037591</v>
       </c>
       <c r="G35">
-        <v>12.63788358541854</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="H35">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I35">
-        <v>1569.677771904978</v>
+        <v>2275.350300665739</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1155.491780139368</v>
+        <v>1674.960693471588</v>
       </c>
       <c r="C36">
-        <v>0.02103066336947954</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D36">
-        <v>9.369288917553607</v>
+        <v>13.58139532657554</v>
       </c>
       <c r="E36">
-        <v>8.873905197319406</v>
+        <v>12.86330431646213</v>
       </c>
       <c r="F36">
-        <v>2.061847764031453</v>
+        <v>2.988782802296027</v>
       </c>
       <c r="G36">
-        <v>11.73517761503149</v>
+        <v>17.01090529065873</v>
       </c>
       <c r="H36">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I36">
-        <v>1187.834616475146</v>
+        <v>1721.843744055712</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1072.630856432005</v>
+        <v>1554.848380584481</v>
       </c>
       <c r="C37">
-        <v>0.0194728364532218</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D37">
-        <v>5.424325162794192</v>
+        <v>7.862913083806889</v>
       </c>
       <c r="E37">
-        <v>8.730777694136837</v>
+        <v>12.65583166619661</v>
       </c>
       <c r="F37">
-        <v>1.786934728827259</v>
+        <v>2.590278428656557</v>
       </c>
       <c r="G37">
-        <v>15.34600149657965</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="H37">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I37">
-        <v>1104.051002822185</v>
+        <v>1600.393931917029</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>852.9353798134018</v>
+        <v>1236.385459259949</v>
       </c>
       <c r="C38">
-        <v>0.01168370187193308</v>
+        <v>0.01693628784392387</v>
       </c>
       <c r="D38">
-        <v>4.43808422410434</v>
+        <v>6.433292523114726</v>
       </c>
       <c r="E38">
-        <v>6.011355133667985</v>
+        <v>8.713851311151764</v>
       </c>
       <c r="F38">
-        <v>1.154634747857614</v>
+        <v>1.673718369285776</v>
       </c>
       <c r="G38">
-        <v>15.34600149657965</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="H38">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I38">
-        <v>880.0097735888725</v>
+        <v>1275.631558758826</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>610.4341443762581</v>
+        <v>884.8641031958456</v>
       </c>
       <c r="C39">
-        <v>0.01635718262070631</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D39">
-        <v>2.136855367161349</v>
+        <v>3.097511214833018</v>
       </c>
       <c r="E39">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F39">
-        <v>0.8247391056125809</v>
+        <v>1.195513120918411</v>
       </c>
       <c r="G39">
-        <v>9.027059703870389</v>
+        <v>13.08531176204516</v>
       </c>
       <c r="H39">
-        <v>0.1689517070836112</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I39">
-        <v>625.1844024998931</v>
+        <v>906.2455643194103</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>359.5707973723164</v>
+        <v>521.2213210605663</v>
       </c>
       <c r="C40">
-        <v>0.01869392299509293</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D40">
-        <v>2.30122885694299</v>
+        <v>3.335781308281712</v>
       </c>
       <c r="E40">
-        <v>1.145020025460568</v>
+        <v>1.659781202124144</v>
       </c>
       <c r="F40">
-        <v>0.6597912844900649</v>
+        <v>0.9564104967347288</v>
       </c>
       <c r="G40">
-        <v>12.63788358541854</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="I40">
-        <v>376.3334150476236</v>
+        <v>545.5198285951204</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>277.4700656255718</v>
+        <v>402.2109559981118</v>
       </c>
       <c r="C41">
-        <v>0.0194728364532218</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D41">
-        <v>0.8218674489082115</v>
+        <v>1.191350467243468</v>
       </c>
       <c r="E41">
-        <v>0.5725100127302841</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F41">
-        <v>0.522334766887968</v>
+        <v>0.7571583099149936</v>
       </c>
       <c r="G41">
-        <v>15.34600149657965</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="I41">
-        <v>294.7522521871312</v>
+        <v>427.2626125182156</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>180.1654946664673</v>
+        <v>261.1616344426096</v>
       </c>
       <c r="C42">
-        <v>0.02180957682760842</v>
+        <v>0.03161440397532454</v>
       </c>
       <c r="D42">
-        <v>1.314987918253138</v>
+        <v>1.906160747589549</v>
       </c>
       <c r="E42">
-        <v>0.715637515912855</v>
+        <v>1.03736325132759</v>
       </c>
       <c r="F42">
-        <v>0.5498260704083873</v>
+        <v>0.7970087472789407</v>
       </c>
       <c r="G42">
-        <v>13.54058955580559</v>
+        <v>19.62796764306773</v>
       </c>
       <c r="I42">
-        <v>196.3083453036748</v>
+        <v>284.5617492358487</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>126.1918654625889</v>
+        <v>182.9233388922918</v>
       </c>
       <c r="C43">
-        <v>0.02414631720199503</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D43">
-        <v>2.465602346724631</v>
+        <v>3.574051401730405</v>
       </c>
       <c r="E43">
-        <v>0.2862550063651421</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F43">
-        <v>0.4398608563267099</v>
+        <v>0.6376069978231527</v>
       </c>
       <c r="G43">
-        <v>9.027059703870389</v>
+        <v>13.08531176204516</v>
       </c>
       <c r="H43">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I43">
-        <v>138.4911069287722</v>
+        <v>200.7518915219681</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>139.8753207537129</v>
+        <v>202.7583997360342</v>
       </c>
       <c r="C44">
-        <v>0.02414631720199503</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D44">
-        <v>1.643734897816423</v>
+        <v>2.382700934486937</v>
       </c>
       <c r="E44">
-        <v>0.5725100127302841</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F44">
-        <v>0.6048086774492261</v>
+        <v>0.8767096220068347</v>
       </c>
       <c r="G44">
-        <v>5.416235822322235</v>
+        <v>7.851187057227101</v>
       </c>
       <c r="I44">
-        <v>148.1367564812331</v>
+        <v>214.7338896123613</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>188.5276062332653</v>
+        <v>273.2830605137854</v>
       </c>
       <c r="C45">
-        <v>0.007789134581288717</v>
+        <v>0.01129085856261591</v>
       </c>
       <c r="D45">
-        <v>3.123096305851203</v>
+        <v>4.527131775525176</v>
       </c>
       <c r="E45">
-        <v>0.8587650190954262</v>
+        <v>1.244835901593109</v>
       </c>
       <c r="F45">
-        <v>1.017178230255517</v>
+        <v>1.47446618246604</v>
       </c>
       <c r="G45">
-        <v>11.73517761503149</v>
+        <v>17.01090529065873</v>
       </c>
       <c r="H45">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I45">
-        <v>205.4948814808584</v>
+        <v>297.8782325466008</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>437.870569315971</v>
+        <v>634.7219469997598</v>
       </c>
       <c r="C46">
-        <v>0.006231307665030975</v>
+        <v>0.009032686850092727</v>
       </c>
       <c r="D46">
-        <v>4.931204693449263</v>
+        <v>7.148102803460811</v>
       </c>
       <c r="E46">
-        <v>4.293825095477131</v>
+        <v>6.224179507965543</v>
       </c>
       <c r="F46">
-        <v>3.134008601327808</v>
+        <v>4.542949859489962</v>
       </c>
       <c r="G46">
-        <v>39.71906269702968</v>
+        <v>57.57537175299873</v>
       </c>
       <c r="H46">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I46">
-        <v>490.067536182309</v>
+        <v>710.3848546225298</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>832.4101968767156</v>
+        <v>1206.632867994335</v>
       </c>
       <c r="C47">
-        <v>0.01324152878819082</v>
+        <v>0.01919445955644704</v>
       </c>
       <c r="D47">
-        <v>8.383047978863758</v>
+        <v>12.15177476588337</v>
       </c>
       <c r="E47">
-        <v>12.45209277688368</v>
+        <v>18.05012057310008</v>
       </c>
       <c r="F47">
-        <v>4.618538991430454</v>
+        <v>6.694873477143102</v>
       </c>
       <c r="G47">
-        <v>55.96777016399639</v>
+        <v>81.12893292467999</v>
       </c>
       <c r="H47">
-        <v>0.6194895926399078</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I47">
-        <v>914.4643779093179</v>
+        <v>1325.575754760725</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1197.302337973358</v>
+        <v>1735.567823827467</v>
       </c>
       <c r="C48">
-        <v>0.02025174991135067</v>
+        <v>0.02935623226280137</v>
       </c>
       <c r="D48">
-        <v>8.876168448208681</v>
+        <v>12.86658504622945</v>
       </c>
       <c r="E48">
-        <v>13.59711280234424</v>
+        <v>19.70990177522422</v>
       </c>
       <c r="F48">
-        <v>4.865960723114227</v>
+        <v>7.053527413418625</v>
       </c>
       <c r="G48">
-        <v>71.31377166057607</v>
+        <v>103.3739629201568</v>
       </c>
       <c r="H48">
-        <v>0.9573930068071298</v>
+        <v>1.387803602041292</v>
       </c>
       <c r="I48">
-        <v>1296.93299636432</v>
+        <v>1879.9889608168</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1302.208828538643</v>
+        <v>1887.636623629494</v>
       </c>
       <c r="C49">
-        <v>0.03505110561579923</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D49">
-        <v>11.17739730515168</v>
+        <v>16.20236635451116</v>
       </c>
       <c r="E49">
-        <v>6.440737643215694</v>
+        <v>9.336269261948322</v>
       </c>
       <c r="F49">
-        <v>4.975925937195907</v>
+        <v>7.212929162874412</v>
       </c>
       <c r="G49">
-        <v>48.74612240090006</v>
+        <v>70.66068351504391</v>
       </c>
       <c r="H49">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I49">
-        <v>1373.978283580584</v>
+        <v>1991.671129329421</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1663.941215225065</v>
+        <v>1130.921053899219</v>
       </c>
       <c r="C2">
-        <v>0.05758337866934113</v>
+        <v>0.03913735334874835</v>
       </c>
       <c r="D2">
-        <v>16.67890654140856</v>
+        <v>11.33605345615831</v>
       </c>
       <c r="E2">
-        <v>7.054070109027623</v>
+        <v>4.79439798052087</v>
       </c>
       <c r="F2">
-        <v>7.053527413418625</v>
+        <v>4.794029129816019</v>
       </c>
       <c r="G2">
-        <v>69.35215233883936</v>
+        <v>47.13616592675761</v>
       </c>
       <c r="H2">
-        <v>0.7347195540218606</v>
+        <v>0.4993624803279952</v>
       </c>
       <c r="I2">
-        <v>1764.872174560451</v>
+        <v>1199.520200226149</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1568.071754480309</v>
+        <v>1065.762026290456</v>
       </c>
       <c r="C3">
-        <v>0.07339058065700341</v>
+        <v>0.04988094054252241</v>
       </c>
       <c r="D3">
-        <v>20.49122803658765</v>
+        <v>13.92715138899449</v>
       </c>
       <c r="E3">
-        <v>2.697144453451737</v>
+        <v>1.833152169022686</v>
       </c>
       <c r="F3">
-        <v>7.770835285969672</v>
+        <v>5.281557515899003</v>
       </c>
       <c r="G3">
-        <v>61.50096528161225</v>
+        <v>41.79999619920019</v>
       </c>
       <c r="H3">
-        <v>1.877616638055865</v>
+        <v>1.27614856083821</v>
       </c>
       <c r="I3">
-        <v>1662.482934756643</v>
+        <v>1129.929913064954</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1465.590606787641</v>
+        <v>996.1092726397095</v>
       </c>
       <c r="C4">
-        <v>0.05758337866934113</v>
+        <v>0.03913735334874835</v>
       </c>
       <c r="D4">
-        <v>10.24561401829383</v>
+        <v>6.963575694497245</v>
       </c>
       <c r="E4">
-        <v>2.489671803186218</v>
+        <v>1.692140463713249</v>
       </c>
       <c r="F4">
-        <v>6.176817791411789</v>
+        <v>4.198161102381258</v>
       </c>
       <c r="G4">
-        <v>58.88390292920324</v>
+        <v>40.02127295668099</v>
       </c>
       <c r="H4">
-        <v>1.632710120048579</v>
+        <v>1.109694400728878</v>
       </c>
       <c r="I4">
-        <v>1545.076906828454</v>
+        <v>1050.13325461106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1700.305493438592</v>
+        <v>1155.636547130129</v>
       </c>
       <c r="C5">
-        <v>0.0620997220943875</v>
+        <v>0.04220694968982665</v>
       </c>
       <c r="D5">
-        <v>13.81966542002423</v>
+        <v>9.392730006531169</v>
       </c>
       <c r="E5">
-        <v>4.356925655575882</v>
+        <v>2.961245811498186</v>
       </c>
       <c r="F5">
-        <v>7.452031787058096</v>
+        <v>5.064878233195453</v>
       </c>
       <c r="G5">
-        <v>48.41565351956709</v>
+        <v>32.90637998660439</v>
       </c>
       <c r="H5">
-        <v>1.387803602041292</v>
+        <v>0.9432402406195465</v>
       </c>
       <c r="I5">
-        <v>1775.799673144953</v>
+        <v>1206.947228358268</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1581.295128376138</v>
+        <v>1074.749478374424</v>
       </c>
       <c r="C6">
-        <v>0.06435789380691068</v>
+        <v>0.0437417478603658</v>
       </c>
       <c r="D6">
-        <v>16.91717663485724</v>
+        <v>11.49799707696056</v>
       </c>
       <c r="E6">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F6">
-        <v>7.970087472789407</v>
+        <v>5.416982067588721</v>
       </c>
       <c r="G6">
-        <v>49.72418469577168</v>
+        <v>33.79574160786398</v>
       </c>
       <c r="H6">
-        <v>1.224532590036434</v>
+        <v>0.8322708005466585</v>
       </c>
       <c r="I6">
-        <v>1660.929975368179</v>
+        <v>1128.874422370814</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1695.897702139983</v>
+        <v>1152.640729768807</v>
       </c>
       <c r="C7">
-        <v>0.06661606551943386</v>
+        <v>0.04527654603090495</v>
       </c>
       <c r="D7">
-        <v>19.53814766279286</v>
+        <v>13.27937690578544</v>
       </c>
       <c r="E7">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F7">
-        <v>8.368591846428876</v>
+        <v>5.687831170968159</v>
       </c>
       <c r="G7">
-        <v>47.10712234336257</v>
+        <v>32.0170183653448</v>
       </c>
       <c r="H7">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I7">
-        <v>1775.773949340898</v>
+        <v>1206.92974481298</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1733.363928178164</v>
+        <v>1178.105177340048</v>
       </c>
       <c r="C8">
-        <v>0.0609706362381259</v>
+        <v>0.04143955060455708</v>
       </c>
       <c r="D8">
-        <v>19.06160747589549</v>
+        <v>12.95548966418092</v>
       </c>
       <c r="E8">
-        <v>4.149453005310361</v>
+        <v>2.820234106188748</v>
       </c>
       <c r="F8">
-        <v>7.810685723333618</v>
+        <v>5.308642426236947</v>
       </c>
       <c r="G8">
-        <v>40.56446646233999</v>
+        <v>27.57021025904693</v>
       </c>
       <c r="H8">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I8">
-        <v>1805.582560023298</v>
+        <v>1227.189586386561</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1938.326223563503</v>
+        <v>1317.410684641541</v>
       </c>
       <c r="C9">
-        <v>0.05645429281307954</v>
+        <v>0.03836995426347878</v>
       </c>
       <c r="D9">
-        <v>16.67890654140856</v>
+        <v>11.33605345615831</v>
       </c>
       <c r="E9">
-        <v>6.639124808496578</v>
+        <v>4.512374569901995</v>
       </c>
       <c r="F9">
-        <v>6.933976101326785</v>
+        <v>4.712774398802186</v>
       </c>
       <c r="G9">
-        <v>43.18152881474903</v>
+        <v>29.34893350156608</v>
       </c>
       <c r="H9">
-        <v>0.8979905660267186</v>
+        <v>0.6103319204008828</v>
       </c>
       <c r="I9">
-        <v>2012.714204688324</v>
+        <v>1367.969522442634</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2104.720345086009</v>
+        <v>1430.502790031462</v>
       </c>
       <c r="C10">
-        <v>0.06887423723195704</v>
+        <v>0.04681134420144411</v>
       </c>
       <c r="D10">
-        <v>15.24928598071639</v>
+        <v>10.36439173134474</v>
       </c>
       <c r="E10">
-        <v>12.44835901593109</v>
+        <v>8.460702318566245</v>
       </c>
       <c r="F10">
-        <v>6.655023039779157</v>
+        <v>4.523180026436582</v>
       </c>
       <c r="G10">
-        <v>32.71327940511292</v>
+        <v>22.23404053148945</v>
       </c>
       <c r="H10">
-        <v>0.4898130360145737</v>
+        <v>0.3329083202186633</v>
       </c>
       <c r="I10">
-        <v>2172.344979800795</v>
+        <v>1476.464824303719</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2236.954084044292</v>
+        <v>1520.377310871135</v>
       </c>
       <c r="C11">
-        <v>0.04290526253794045</v>
+        <v>0.02916116524024387</v>
       </c>
       <c r="D11">
-        <v>13.10485513967815</v>
+        <v>8.906899144124383</v>
       </c>
       <c r="E11">
-        <v>13.27824961699316</v>
+        <v>9.024749139803991</v>
       </c>
       <c r="F11">
-        <v>3.706090674847076</v>
+        <v>2.518896661428755</v>
       </c>
       <c r="G11">
-        <v>6.54265588102258</v>
+        <v>4.446808106297892</v>
       </c>
       <c r="H11">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I11">
-        <v>2274.200289161387</v>
+        <v>1545.692218128286</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1629.780832660842</v>
+        <v>1107.70346934897</v>
       </c>
       <c r="C12">
-        <v>0.03613074740037091</v>
+        <v>0.02455677072862641</v>
       </c>
       <c r="D12">
-        <v>13.34312523312685</v>
+        <v>9.068842764926639</v>
       </c>
       <c r="E12">
-        <v>8.091433360355209</v>
+        <v>5.499456507068056</v>
       </c>
       <c r="F12">
-        <v>3.307586301207604</v>
+        <v>2.248047558049319</v>
       </c>
       <c r="G12">
-        <v>14.39384293824968</v>
+        <v>9.782977833855361</v>
       </c>
       <c r="H12">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I12">
-        <v>1669.116222253186</v>
+        <v>1134.438320223671</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1421.512693801546</v>
+        <v>966.1510990264851</v>
       </c>
       <c r="C13">
-        <v>0.024839888837755</v>
+        <v>0.01688277987593066</v>
       </c>
       <c r="D13">
-        <v>7.862913083806889</v>
+        <v>5.344139486474627</v>
       </c>
       <c r="E13">
-        <v>10.78857781380695</v>
+        <v>7.332608676090745</v>
       </c>
       <c r="F13">
-        <v>2.072222742925246</v>
+        <v>1.408415337573068</v>
       </c>
       <c r="G13">
-        <v>23.55356117168128</v>
+        <v>16.0085091826724</v>
       </c>
       <c r="H13">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I13">
-        <v>1466.222986032616</v>
+        <v>996.5390780893541</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1126.190676794712</v>
+        <v>765.431335817882</v>
       </c>
       <c r="C14">
-        <v>0.02145263126897022</v>
+        <v>0.01458058262012193</v>
       </c>
       <c r="D14">
-        <v>8.101183177255582</v>
+        <v>5.506083107276892</v>
       </c>
       <c r="E14">
-        <v>6.8465974587621</v>
+        <v>4.653386275211432</v>
       </c>
       <c r="F14">
-        <v>1.394765307738146</v>
+        <v>0.9479718618280262</v>
       </c>
       <c r="G14">
-        <v>18.31943646686323</v>
+        <v>12.45106269763409</v>
       </c>
       <c r="H14">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I14">
-        <v>1161.282289366612</v>
+        <v>789.281843942635</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>795.6063293990045</v>
+        <v>540.7450337186996</v>
       </c>
       <c r="C15">
-        <v>0.03048531811906295</v>
+        <v>0.02071977530227854</v>
       </c>
       <c r="D15">
-        <v>5.241942055871259</v>
+        <v>3.562759657649752</v>
       </c>
       <c r="E15">
-        <v>3.941980355044845</v>
+        <v>2.679222400879311</v>
       </c>
       <c r="F15">
-        <v>1.195513120918411</v>
+        <v>0.8125473101383081</v>
       </c>
       <c r="G15">
-        <v>15.7023741144542</v>
+        <v>10.67233945511494</v>
       </c>
       <c r="I15">
-        <v>821.7186243634123</v>
+        <v>558.4926223177841</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>489.2648341456484</v>
+        <v>332.5357271067901</v>
       </c>
       <c r="C16">
-        <v>0.024839888837755</v>
+        <v>0.01688277987593066</v>
       </c>
       <c r="D16">
-        <v>3.574051401730405</v>
+        <v>2.429154312033921</v>
       </c>
       <c r="E16">
-        <v>2.074726502655181</v>
+        <v>1.410117053094374</v>
       </c>
       <c r="F16">
-        <v>0.9165600593707817</v>
+        <v>0.622952937772703</v>
       </c>
       <c r="G16">
-        <v>14.39384293824968</v>
+        <v>9.782977833855361</v>
       </c>
       <c r="I16">
-        <v>510.2488549364921</v>
+        <v>346.7978120234224</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>380.1719995050644</v>
+        <v>258.38924741406</v>
       </c>
       <c r="C17">
-        <v>0.03500166154410932</v>
+        <v>0.02378937164335685</v>
       </c>
       <c r="D17">
-        <v>1.191350467243468</v>
+        <v>0.8097181040113075</v>
       </c>
       <c r="E17">
-        <v>0.4149453005310361</v>
+        <v>0.2820234106188747</v>
       </c>
       <c r="F17">
-        <v>0.5180556857313114</v>
+        <v>0.3521038343932669</v>
       </c>
       <c r="G17">
-        <v>17.01090529065873</v>
+        <v>11.56170107637451</v>
       </c>
       <c r="I17">
-        <v>399.3422579107731</v>
+        <v>271.4185832111013</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>247.9382605467812</v>
+        <v>168.5147265743869</v>
       </c>
       <c r="C18">
-        <v>0.03161440397532454</v>
+        <v>0.02148717438754811</v>
       </c>
       <c r="D18">
-        <v>2.144430841038243</v>
+        <v>1.457492587220353</v>
       </c>
       <c r="E18">
-        <v>0.8298906010620722</v>
+        <v>0.5640468212377494</v>
       </c>
       <c r="F18">
-        <v>0.9564104967347288</v>
+        <v>0.6500378481106465</v>
       </c>
       <c r="G18">
-        <v>10.46824940963613</v>
+        <v>7.114892970076627</v>
       </c>
       <c r="I18">
-        <v>262.3688562992276</v>
+        <v>178.3226839754198</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>147.6610085034163</v>
+        <v>100.3598816043015</v>
       </c>
       <c r="C19">
-        <v>0.02822714640653977</v>
+        <v>0.01918497713173939</v>
       </c>
       <c r="D19">
-        <v>2.859241121384323</v>
+        <v>1.943323449627137</v>
       </c>
       <c r="E19">
-        <v>0.2074726502655181</v>
+        <v>0.1410117053094374</v>
       </c>
       <c r="F19">
-        <v>0.4383548110034173</v>
+        <v>0.2979340137173797</v>
       </c>
       <c r="G19">
-        <v>22.24502999547677</v>
+        <v>15.11914756141283</v>
       </c>
       <c r="H19">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I19">
-        <v>173.5209697339554</v>
+        <v>117.9359680315365</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>178.5155475936824</v>
+        <v>121.3306031335586</v>
       </c>
       <c r="C20">
-        <v>0.02145263126897022</v>
+        <v>0.01458058262012193</v>
       </c>
       <c r="D20">
-        <v>3.574051401730405</v>
+        <v>2.429154312033921</v>
       </c>
       <c r="E20">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F20">
-        <v>0.8767096220068347</v>
+        <v>0.5958680274347593</v>
       </c>
       <c r="G20">
-        <v>18.31943646686323</v>
+        <v>12.45106269763409</v>
       </c>
       <c r="H20">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I20">
-        <v>202.0112511723509</v>
+        <v>137.2997885892463</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>306.3414952533564</v>
+        <v>208.2093066119092</v>
       </c>
       <c r="C21">
-        <v>0.01016177270635432</v>
+        <v>0.00690659176742618</v>
       </c>
       <c r="D21">
-        <v>5.003671962422564</v>
+        <v>3.400816036847491</v>
       </c>
       <c r="E21">
-        <v>1.452308551858627</v>
+        <v>0.9870819371660615</v>
       </c>
       <c r="F21">
-        <v>1.554167057193935</v>
+        <v>1.0563115031798</v>
       </c>
       <c r="G21">
-        <v>30.09621705270388</v>
+        <v>20.45531728897031</v>
       </c>
       <c r="I21">
-        <v>344.4580216502417</v>
+        <v>234.1157399698403</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>615.9888339806697</v>
+        <v>418.6654762448102</v>
       </c>
       <c r="C22">
-        <v>0.009032686850092727</v>
+        <v>0.006139192682156604</v>
       </c>
       <c r="D22">
-        <v>7.386372896909505</v>
+        <v>5.020252244870106</v>
       </c>
       <c r="E22">
-        <v>6.016706857700027</v>
+        <v>4.089339453973683</v>
       </c>
       <c r="F22">
-        <v>4.383548110034173</v>
+        <v>2.979340137173796</v>
       </c>
       <c r="G22">
-        <v>54.95830940058969</v>
+        <v>37.35318809290231</v>
       </c>
       <c r="H22">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I22">
-        <v>688.9060749447581</v>
+        <v>468.2247048064852</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1170.268589780807</v>
+        <v>795.3895094311069</v>
       </c>
       <c r="C23">
-        <v>0.02032354541270864</v>
+        <v>0.01381318353485236</v>
       </c>
       <c r="D23">
-        <v>12.62831495278076</v>
+        <v>8.583011902519859</v>
       </c>
       <c r="E23">
-        <v>17.42770262230353</v>
+        <v>11.84498324599274</v>
       </c>
       <c r="F23">
-        <v>6.45577085295942</v>
+        <v>4.387755474746863</v>
       </c>
       <c r="G23">
-        <v>77.2033393960665</v>
+        <v>52.4723356543151</v>
       </c>
       <c r="H23">
-        <v>0.9796260720291473</v>
+        <v>0.6658166404373267</v>
       </c>
       <c r="I23">
-        <v>1284.983667222359</v>
+        <v>873.3572255326536</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1683.776276068807</v>
+        <v>1144.40223202517</v>
       </c>
       <c r="C24">
-        <v>0.03048531811906295</v>
+        <v>0.02071977530227854</v>
       </c>
       <c r="D24">
-        <v>13.34312523312685</v>
+        <v>9.068842764926639</v>
       </c>
       <c r="E24">
-        <v>18.88001117416215</v>
+        <v>12.83206518315881</v>
       </c>
       <c r="F24">
-        <v>6.814424789234943</v>
+        <v>4.631519667788359</v>
       </c>
       <c r="G24">
-        <v>98.13983821533873</v>
+        <v>66.70212159446834</v>
       </c>
       <c r="H24">
-        <v>1.469439108043721</v>
+        <v>0.9987249606559904</v>
       </c>
       <c r="I24">
-        <v>1822.453599906832</v>
+        <v>1238.656225971471</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1830.335336747571</v>
+        <v>1244.013159289141</v>
       </c>
       <c r="C25">
-        <v>0.05193794938803319</v>
+        <v>0.03530035792240048</v>
       </c>
       <c r="D25">
-        <v>16.67890654140856</v>
+        <v>11.33605345615831</v>
       </c>
       <c r="E25">
-        <v>8.921323961417283</v>
+        <v>6.063503328305806</v>
       </c>
       <c r="F25">
-        <v>6.933976101326785</v>
+        <v>4.712774398802186</v>
       </c>
       <c r="G25">
-        <v>66.73508998643032</v>
+        <v>45.35744268423845</v>
       </c>
       <c r="H25">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I25">
-        <v>1930.309655335562</v>
+        <v>1311.962111274859</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1715.732762983725</v>
+        <v>1166.121907894757</v>
       </c>
       <c r="C26">
-        <v>0.05532520695681795</v>
+        <v>0.03760255517820921</v>
       </c>
       <c r="D26">
-        <v>16.20236635451116</v>
+        <v>11.01216621455378</v>
       </c>
       <c r="E26">
-        <v>7.261542759293137</v>
+        <v>4.93540968583031</v>
       </c>
       <c r="F26">
-        <v>7.332480474966253</v>
+        <v>4.983623502181624</v>
       </c>
       <c r="G26">
-        <v>73.27774586745292</v>
+        <v>49.80425079053636</v>
       </c>
       <c r="H26">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I26">
-        <v>1820.515307694925</v>
+        <v>1237.338838403329</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1616.557458765013</v>
+        <v>1098.716017265004</v>
       </c>
       <c r="C27">
-        <v>0.07113240894448022</v>
+        <v>0.04834614237198325</v>
       </c>
       <c r="D27">
-        <v>19.77641775624157</v>
+        <v>13.4413205265877</v>
       </c>
       <c r="E27">
-        <v>2.904617103717254</v>
+        <v>1.974163874332123</v>
       </c>
       <c r="F27">
-        <v>8.049788347517302</v>
+        <v>5.471151888264608</v>
       </c>
       <c r="G27">
-        <v>64.11802763402129</v>
+        <v>43.57871944171936</v>
       </c>
       <c r="H27">
-        <v>1.714345626051008</v>
+        <v>1.165179120765322</v>
       </c>
       <c r="I27">
-        <v>1713.191787641506</v>
+        <v>1164.394898259045</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1638.59641525806</v>
+        <v>1113.695104071615</v>
       </c>
       <c r="C28">
-        <v>0.06548697966317228</v>
+        <v>0.04450914694563538</v>
       </c>
       <c r="D28">
-        <v>15.48755607416509</v>
+        <v>10.526335352147</v>
       </c>
       <c r="E28">
-        <v>2.904617103717254</v>
+        <v>1.974163874332123</v>
       </c>
       <c r="F28">
-        <v>7.212929162874412</v>
+        <v>4.902368771167793</v>
       </c>
       <c r="G28">
-        <v>68.04362116263492</v>
+        <v>46.24680430549805</v>
       </c>
       <c r="H28">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I28">
-        <v>1733.371887319146</v>
+        <v>1178.110586882179</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1710.223023860464</v>
+        <v>1162.377136193105</v>
       </c>
       <c r="C29">
-        <v>0.07000332308821863</v>
+        <v>0.04757874328671369</v>
       </c>
       <c r="D29">
-        <v>13.10485513967815</v>
+        <v>8.906899144124383</v>
       </c>
       <c r="E29">
-        <v>3.112089753982771</v>
+        <v>2.115175579641561</v>
       </c>
       <c r="F29">
-        <v>7.212929162874412</v>
+        <v>4.902368771167793</v>
       </c>
       <c r="G29">
-        <v>54.95830940058969</v>
+        <v>37.35318809290231</v>
       </c>
       <c r="H29">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I29">
-        <v>1789.334294688697</v>
+        <v>1216.146224284519</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1775.237945514953</v>
+        <v>1206.565442272611</v>
       </c>
       <c r="C30">
-        <v>0.0609706362381259</v>
+        <v>0.04143955060455708</v>
       </c>
       <c r="D30">
-        <v>10.96042429863991</v>
+        <v>7.449406556904026</v>
       </c>
       <c r="E30">
-        <v>3.527035054513811</v>
+        <v>2.397198990260435</v>
       </c>
       <c r="F30">
-        <v>8.966348406888084</v>
+        <v>6.094104826037311</v>
       </c>
       <c r="G30">
-        <v>61.50096528161225</v>
+        <v>41.79999619920019</v>
       </c>
       <c r="H30">
-        <v>0.9796260720291473</v>
+        <v>0.6658166404373267</v>
       </c>
       <c r="I30">
-        <v>1861.233315264874</v>
+        <v>1265.013405036054</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1595.620450096619</v>
+        <v>1084.485884798721</v>
       </c>
       <c r="C31">
-        <v>0.0609706362381259</v>
+        <v>0.04143955060455708</v>
       </c>
       <c r="D31">
-        <v>14.53447570037031</v>
+        <v>9.878560868937951</v>
       </c>
       <c r="E31">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F31">
-        <v>7.013676976054677</v>
+        <v>4.766944219478074</v>
       </c>
       <c r="G31">
-        <v>43.18152881474903</v>
+        <v>29.34893350156608</v>
       </c>
       <c r="H31">
-        <v>0.4898130360145737</v>
+        <v>0.3329083202186633</v>
       </c>
       <c r="I31">
-        <v>1664.635422964825</v>
+        <v>1131.392881955096</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1777.441841164258</v>
+        <v>1208.063350953272</v>
       </c>
       <c r="C32">
-        <v>0.05419612110055635</v>
+        <v>0.03683515609293963</v>
       </c>
       <c r="D32">
-        <v>21.92084859727982</v>
+        <v>14.89881311380805</v>
       </c>
       <c r="E32">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F32">
-        <v>8.049788347517302</v>
+        <v>5.471151888264608</v>
       </c>
       <c r="G32">
-        <v>40.56446646233999</v>
+        <v>27.57021025904693</v>
       </c>
       <c r="H32">
-        <v>1.142897084034006</v>
+        <v>0.7767860805102147</v>
       </c>
       <c r="I32">
-        <v>1852.908545481309</v>
+        <v>1259.355358146564</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1786.257423761477</v>
+        <v>1214.054985675917</v>
       </c>
       <c r="C33">
-        <v>0.05645429281307954</v>
+        <v>0.03836995426347878</v>
       </c>
       <c r="D33">
-        <v>18.58506728899809</v>
+        <v>12.63160242257639</v>
       </c>
       <c r="E33">
-        <v>5.394288906903474</v>
+        <v>3.666304338045372</v>
       </c>
       <c r="F33">
-        <v>7.452031787058096</v>
+        <v>5.064878233195453</v>
       </c>
       <c r="G33">
-        <v>51.03271587197616</v>
+        <v>34.68510322912354</v>
       </c>
       <c r="H33">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I33">
-        <v>1869.839243487257</v>
+        <v>1270.862545213595</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2132.269040702318</v>
+        <v>1449.226648539727</v>
       </c>
       <c r="C34">
-        <v>0.04855069181924841</v>
+        <v>0.03299816066659174</v>
       </c>
       <c r="D34">
-        <v>16.20236635451116</v>
+        <v>11.01216621455378</v>
       </c>
       <c r="E34">
-        <v>10.99605046407247</v>
+        <v>7.473620381400178</v>
       </c>
       <c r="F34">
-        <v>6.216668228775738</v>
+        <v>4.225246012719201</v>
       </c>
       <c r="G34">
-        <v>28.78768587649937</v>
+        <v>19.56595566771072</v>
       </c>
       <c r="H34">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I34">
-        <v>2195.33671737802</v>
+        <v>1492.091482177143</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2225.934605797769</v>
+        <v>1512.887767467829</v>
       </c>
       <c r="C35">
-        <v>0.0372598332566325</v>
+        <v>0.025324169813896</v>
       </c>
       <c r="D35">
-        <v>13.34312523312685</v>
+        <v>9.068842764926639</v>
       </c>
       <c r="E35">
-        <v>12.24088636566558</v>
+        <v>8.31969061325681</v>
       </c>
       <c r="F35">
-        <v>4.821902921037591</v>
+        <v>3.277274150891177</v>
       </c>
       <c r="G35">
-        <v>18.31943646686323</v>
+        <v>12.45106269763409</v>
       </c>
       <c r="H35">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I35">
-        <v>2275.350300665739</v>
+        <v>1546.473839624644</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1674.960693471588</v>
+        <v>1138.410597302526</v>
       </c>
       <c r="C36">
-        <v>0.03048531811906295</v>
+        <v>0.02071977530227854</v>
       </c>
       <c r="D36">
-        <v>13.58139532657554</v>
+        <v>9.230786385728901</v>
       </c>
       <c r="E36">
-        <v>12.86330431646213</v>
+        <v>8.742725729185118</v>
       </c>
       <c r="F36">
-        <v>2.988782802296027</v>
+        <v>2.031368275345771</v>
       </c>
       <c r="G36">
-        <v>17.01090529065873</v>
+        <v>11.56170107637451</v>
       </c>
       <c r="H36">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I36">
-        <v>1721.843744055712</v>
+        <v>1170.275322144644</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1554.848380584481</v>
+        <v>1056.774574206489</v>
       </c>
       <c r="C37">
-        <v>0.02822714640653977</v>
+        <v>0.01918497713173939</v>
       </c>
       <c r="D37">
-        <v>7.862913083806889</v>
+        <v>5.344139486474627</v>
       </c>
       <c r="E37">
-        <v>12.65583166619661</v>
+        <v>8.601714023875685</v>
       </c>
       <c r="F37">
-        <v>2.590278428656557</v>
+        <v>1.760519171966335</v>
       </c>
       <c r="G37">
-        <v>22.24502999547677</v>
+        <v>15.11914756141283</v>
       </c>
       <c r="H37">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I37">
-        <v>1600.393931917029</v>
+        <v>1087.730248867423</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1236.385459259949</v>
+        <v>840.326769850943</v>
       </c>
       <c r="C38">
-        <v>0.01693628784392387</v>
+        <v>0.01151098627904363</v>
       </c>
       <c r="D38">
-        <v>6.433292523114726</v>
+        <v>4.372477761661061</v>
       </c>
       <c r="E38">
-        <v>8.713851311151764</v>
+        <v>5.922491622996372</v>
       </c>
       <c r="F38">
-        <v>1.673718369285776</v>
+        <v>1.137566234193631</v>
       </c>
       <c r="G38">
-        <v>22.24502999547677</v>
+        <v>15.11914756141283</v>
       </c>
       <c r="H38">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I38">
-        <v>1275.631558758826</v>
+        <v>867.0009334575589</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>884.8641031958456</v>
+        <v>601.4103352854787</v>
       </c>
       <c r="C39">
-        <v>0.02371080298149341</v>
+        <v>0.01611538079066109</v>
       </c>
       <c r="D39">
-        <v>3.097511214833018</v>
+        <v>2.105267070429399</v>
       </c>
       <c r="E39">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F39">
-        <v>1.195513120918411</v>
+        <v>0.8125473101383081</v>
       </c>
       <c r="G39">
-        <v>13.08531176204516</v>
+        <v>8.893616212595784</v>
       </c>
       <c r="H39">
-        <v>0.2449065180072868</v>
+        <v>0.1664541601093317</v>
       </c>
       <c r="I39">
-        <v>906.2455643194103</v>
+        <v>615.942546115112</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>521.2213210605663</v>
+        <v>354.2554029763779</v>
       </c>
       <c r="C40">
-        <v>0.02709806055027818</v>
+        <v>0.01841757804646981</v>
       </c>
       <c r="D40">
-        <v>3.335781308281712</v>
+        <v>2.26721069123166</v>
       </c>
       <c r="E40">
-        <v>1.659781202124144</v>
+        <v>1.128093642475499</v>
       </c>
       <c r="F40">
-        <v>0.9564104967347288</v>
+        <v>0.6500378481106465</v>
       </c>
       <c r="G40">
-        <v>18.31943646686323</v>
+        <v>12.45106269763409</v>
       </c>
       <c r="I40">
-        <v>545.5198285951204</v>
+        <v>370.7702254338762</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>402.2109559981118</v>
+        <v>273.3683342206722</v>
       </c>
       <c r="C41">
-        <v>0.02822714640653977</v>
+        <v>0.01918497713173939</v>
       </c>
       <c r="D41">
-        <v>1.191350467243468</v>
+        <v>0.8097181040113075</v>
       </c>
       <c r="E41">
-        <v>0.8298906010620722</v>
+        <v>0.5640468212377494</v>
       </c>
       <c r="F41">
-        <v>0.7571583099149936</v>
+        <v>0.5146132964209285</v>
       </c>
       <c r="G41">
-        <v>22.24502999547677</v>
+        <v>15.11914756141283</v>
       </c>
       <c r="I41">
-        <v>427.2626125182156</v>
+        <v>290.3950449808867</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>261.1616344426096</v>
+        <v>177.5021786583543</v>
       </c>
       <c r="C42">
-        <v>0.03161440397532454</v>
+        <v>0.02148717438754811</v>
       </c>
       <c r="D42">
-        <v>1.906160747589549</v>
+        <v>1.295548966418092</v>
       </c>
       <c r="E42">
-        <v>1.03736325132759</v>
+        <v>0.7050585265471869</v>
       </c>
       <c r="F42">
-        <v>0.7970087472789407</v>
+        <v>0.5416982067588721</v>
       </c>
       <c r="G42">
-        <v>19.62796764306773</v>
+        <v>13.34042431889368</v>
       </c>
       <c r="I42">
-        <v>284.5617492358487</v>
+        <v>193.4063958513596</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>182.9233388922918</v>
+        <v>124.326420494881</v>
       </c>
       <c r="C43">
-        <v>0.03500166154410932</v>
+        <v>0.02378937164335685</v>
       </c>
       <c r="D43">
-        <v>3.574051401730405</v>
+        <v>2.429154312033921</v>
       </c>
       <c r="E43">
-        <v>0.4149453005310361</v>
+        <v>0.2820234106188747</v>
       </c>
       <c r="F43">
-        <v>0.6376069978231527</v>
+        <v>0.4333585654070978</v>
       </c>
       <c r="G43">
-        <v>13.08531176204516</v>
+        <v>8.893616212595784</v>
       </c>
       <c r="H43">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I43">
-        <v>200.7518915219681</v>
+        <v>136.4438470872165</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>202.7583997360342</v>
+        <v>137.8075986208321</v>
       </c>
       <c r="C44">
-        <v>0.03500166154410932</v>
+        <v>0.02378937164335685</v>
       </c>
       <c r="D44">
-        <v>2.382700934486937</v>
+        <v>1.619436208022615</v>
       </c>
       <c r="E44">
-        <v>0.8298906010620722</v>
+        <v>0.5640468212377494</v>
       </c>
       <c r="F44">
-        <v>0.8767096220068347</v>
+        <v>0.5958680274347593</v>
       </c>
       <c r="G44">
-        <v>7.851187057227101</v>
+        <v>5.336169727557468</v>
       </c>
       <c r="I44">
-        <v>214.7338896123613</v>
+        <v>145.946908776728</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>273.2830605137854</v>
+        <v>185.7406764019909</v>
       </c>
       <c r="C45">
-        <v>0.01129085856261591</v>
+        <v>0.007673990852695755</v>
       </c>
       <c r="D45">
-        <v>4.527131775525176</v>
+        <v>3.076928795242968</v>
       </c>
       <c r="E45">
-        <v>1.244835901593109</v>
+        <v>0.8460702318566243</v>
       </c>
       <c r="F45">
-        <v>1.47446618246604</v>
+        <v>1.002141682503913</v>
       </c>
       <c r="G45">
-        <v>17.01090529065873</v>
+        <v>11.56170107637451</v>
       </c>
       <c r="H45">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I45">
-        <v>297.8782325466008</v>
+        <v>202.4571310589674</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>634.7219469997598</v>
+        <v>431.3977000304305</v>
       </c>
       <c r="C46">
-        <v>0.009032686850092727</v>
+        <v>0.006139192682156604</v>
       </c>
       <c r="D46">
-        <v>7.148102803460811</v>
+        <v>4.858308624067842</v>
       </c>
       <c r="E46">
-        <v>6.224179507965543</v>
+        <v>4.230351159283122</v>
       </c>
       <c r="F46">
-        <v>4.542949859489962</v>
+        <v>3.087679778525571</v>
       </c>
       <c r="G46">
-        <v>57.57537175299873</v>
+        <v>39.13191133542144</v>
       </c>
       <c r="H46">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I46">
-        <v>710.3848546225298</v>
+        <v>482.8230595604835</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1206.632867994335</v>
+        <v>820.1050026620165</v>
       </c>
       <c r="C47">
-        <v>0.01919445955644704</v>
+        <v>0.01304578444958278</v>
       </c>
       <c r="D47">
-        <v>12.15177476588337</v>
+        <v>8.259124660915337</v>
       </c>
       <c r="E47">
-        <v>18.05012057310008</v>
+        <v>12.26801836192105</v>
       </c>
       <c r="F47">
-        <v>6.694873477143102</v>
+        <v>4.550264936774526</v>
       </c>
       <c r="G47">
-        <v>81.12893292467999</v>
+        <v>55.14042051809386</v>
       </c>
       <c r="H47">
-        <v>0.8979905660267186</v>
+        <v>0.6103319204008828</v>
       </c>
       <c r="I47">
-        <v>1325.575754760725</v>
+        <v>900.9462088445716</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1735.567823827467</v>
+        <v>1179.603086020708</v>
       </c>
       <c r="C48">
-        <v>0.02935623226280137</v>
+        <v>0.01995237621700896</v>
       </c>
       <c r="D48">
-        <v>12.86658504622945</v>
+        <v>8.744955523322123</v>
       </c>
       <c r="E48">
-        <v>19.70990177522422</v>
+        <v>13.39611200439655</v>
       </c>
       <c r="F48">
-        <v>7.053527413418625</v>
+        <v>4.794029129816019</v>
       </c>
       <c r="G48">
-        <v>103.3739629201568</v>
+        <v>70.25956807950671</v>
       </c>
       <c r="H48">
-        <v>1.387803602041292</v>
+        <v>0.9432402406195465</v>
       </c>
       <c r="I48">
-        <v>1879.9889608168</v>
+        <v>1277.760943374586</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1887.636623629494</v>
+        <v>1282.958784986332</v>
       </c>
       <c r="C49">
-        <v>0.05080886353177159</v>
+        <v>0.03453295883713089</v>
       </c>
       <c r="D49">
-        <v>16.20236635451116</v>
+        <v>11.01216621455378</v>
       </c>
       <c r="E49">
-        <v>9.336269261948322</v>
+        <v>6.345526738924681</v>
       </c>
       <c r="F49">
-        <v>7.212929162874412</v>
+        <v>4.902368771167793</v>
       </c>
       <c r="G49">
-        <v>70.66068351504391</v>
+        <v>48.02552754801723</v>
       </c>
       <c r="H49">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I49">
-        <v>1991.671129329421</v>
+        <v>1353.667300258088</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1130.921053899219</v>
+        <v>1663.941215225065</v>
       </c>
       <c r="C2">
-        <v>0.03913735334874835</v>
+        <v>0.05758337866934113</v>
       </c>
       <c r="D2">
-        <v>11.33605345615831</v>
+        <v>16.67890654140856</v>
       </c>
       <c r="E2">
-        <v>4.79439798052087</v>
+        <v>7.054070109027623</v>
       </c>
       <c r="F2">
-        <v>4.794029129816019</v>
+        <v>7.053527413418625</v>
       </c>
       <c r="G2">
-        <v>47.13616592675761</v>
+        <v>69.35215233883936</v>
       </c>
       <c r="H2">
-        <v>0.4993624803279952</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I2">
-        <v>1199.520200226149</v>
+        <v>1764.872174560451</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1065.762026290456</v>
+        <v>1568.071754480309</v>
       </c>
       <c r="C3">
-        <v>0.04988094054252241</v>
+        <v>0.07339058065700341</v>
       </c>
       <c r="D3">
-        <v>13.92715138899449</v>
+        <v>20.49122803658765</v>
       </c>
       <c r="E3">
-        <v>1.833152169022686</v>
+        <v>2.697144453451737</v>
       </c>
       <c r="F3">
-        <v>5.281557515899003</v>
+        <v>7.770835285969672</v>
       </c>
       <c r="G3">
-        <v>41.79999619920019</v>
+        <v>61.50096528161225</v>
       </c>
       <c r="H3">
-        <v>1.27614856083821</v>
+        <v>1.877616638055865</v>
       </c>
       <c r="I3">
-        <v>1129.929913064954</v>
+        <v>1662.482934756643</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>996.1092726397095</v>
+        <v>1465.590606787641</v>
       </c>
       <c r="C4">
-        <v>0.03913735334874835</v>
+        <v>0.05758337866934113</v>
       </c>
       <c r="D4">
-        <v>6.963575694497245</v>
+        <v>10.24561401829383</v>
       </c>
       <c r="E4">
-        <v>1.692140463713249</v>
+        <v>2.489671803186218</v>
       </c>
       <c r="F4">
-        <v>4.198161102381258</v>
+        <v>6.176817791411789</v>
       </c>
       <c r="G4">
-        <v>40.02127295668099</v>
+        <v>58.88390292920324</v>
       </c>
       <c r="H4">
-        <v>1.109694400728878</v>
+        <v>1.632710120048579</v>
       </c>
       <c r="I4">
-        <v>1050.13325461106</v>
+        <v>1545.076906828454</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1155.636547130129</v>
+        <v>1700.305493438592</v>
       </c>
       <c r="C5">
-        <v>0.04220694968982665</v>
+        <v>0.0620997220943875</v>
       </c>
       <c r="D5">
-        <v>9.392730006531169</v>
+        <v>13.81966542002423</v>
       </c>
       <c r="E5">
-        <v>2.961245811498186</v>
+        <v>4.356925655575882</v>
       </c>
       <c r="F5">
-        <v>5.064878233195453</v>
+        <v>7.452031787058096</v>
       </c>
       <c r="G5">
-        <v>32.90637998660439</v>
+        <v>48.41565351956709</v>
       </c>
       <c r="H5">
-        <v>0.9432402406195465</v>
+        <v>1.387803602041292</v>
       </c>
       <c r="I5">
-        <v>1206.947228358268</v>
+        <v>1775.799673144953</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1074.749478374424</v>
+        <v>1581.295128376138</v>
       </c>
       <c r="C6">
-        <v>0.0437417478603658</v>
+        <v>0.06435789380691068</v>
       </c>
       <c r="D6">
-        <v>11.49799707696056</v>
+        <v>16.91717663485724</v>
       </c>
       <c r="E6">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F6">
-        <v>5.416982067588721</v>
+        <v>7.970087472789407</v>
       </c>
       <c r="G6">
-        <v>33.79574160786398</v>
+        <v>49.72418469577168</v>
       </c>
       <c r="H6">
-        <v>0.8322708005466585</v>
+        <v>1.224532590036434</v>
       </c>
       <c r="I6">
-        <v>1128.874422370814</v>
+        <v>1660.929975368179</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1152.640729768807</v>
+        <v>1695.897702139983</v>
       </c>
       <c r="C7">
-        <v>0.04527654603090495</v>
+        <v>0.06661606551943386</v>
       </c>
       <c r="D7">
-        <v>13.27937690578544</v>
+        <v>19.53814766279286</v>
       </c>
       <c r="E7">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F7">
-        <v>5.687831170968159</v>
+        <v>8.368591846428876</v>
       </c>
       <c r="G7">
-        <v>32.0170183653448</v>
+        <v>47.10712234336257</v>
       </c>
       <c r="H7">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I7">
-        <v>1206.92974481298</v>
+        <v>1775.773949340898</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1178.105177340048</v>
+        <v>1733.363928178164</v>
       </c>
       <c r="C8">
-        <v>0.04143955060455708</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D8">
-        <v>12.95548966418092</v>
+        <v>19.06160747589549</v>
       </c>
       <c r="E8">
-        <v>2.820234106188748</v>
+        <v>4.149453005310361</v>
       </c>
       <c r="F8">
-        <v>5.308642426236947</v>
+        <v>7.810685723333618</v>
       </c>
       <c r="G8">
-        <v>27.57021025904693</v>
+        <v>40.56446646233999</v>
       </c>
       <c r="H8">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I8">
-        <v>1227.189586386561</v>
+        <v>1805.582560023298</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1317.410684641541</v>
+        <v>1938.326223563503</v>
       </c>
       <c r="C9">
-        <v>0.03836995426347878</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D9">
-        <v>11.33605345615831</v>
+        <v>16.67890654140856</v>
       </c>
       <c r="E9">
-        <v>4.512374569901995</v>
+        <v>6.639124808496578</v>
       </c>
       <c r="F9">
-        <v>4.712774398802186</v>
+        <v>6.933976101326785</v>
       </c>
       <c r="G9">
-        <v>29.34893350156608</v>
+        <v>43.18152881474903</v>
       </c>
       <c r="H9">
-        <v>0.6103319204008828</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I9">
-        <v>1367.969522442634</v>
+        <v>2012.714204688324</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1430.502790031462</v>
+        <v>2104.720345086009</v>
       </c>
       <c r="C10">
-        <v>0.04681134420144411</v>
+        <v>0.06887423723195704</v>
       </c>
       <c r="D10">
-        <v>10.36439173134474</v>
+        <v>15.24928598071639</v>
       </c>
       <c r="E10">
-        <v>8.460702318566245</v>
+        <v>12.44835901593109</v>
       </c>
       <c r="F10">
-        <v>4.523180026436582</v>
+        <v>6.655023039779157</v>
       </c>
       <c r="G10">
-        <v>22.23404053148945</v>
+        <v>32.71327940511292</v>
       </c>
       <c r="H10">
-        <v>0.3329083202186633</v>
+        <v>0.4898130360145737</v>
       </c>
       <c r="I10">
-        <v>1476.464824303719</v>
+        <v>2172.344979800795</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1520.377310871135</v>
+        <v>2236.954084044292</v>
       </c>
       <c r="C11">
-        <v>0.02916116524024387</v>
+        <v>0.04290526253794045</v>
       </c>
       <c r="D11">
-        <v>8.906899144124383</v>
+        <v>13.10485513967815</v>
       </c>
       <c r="E11">
-        <v>9.024749139803991</v>
+        <v>13.27824961699316</v>
       </c>
       <c r="F11">
-        <v>2.518896661428755</v>
+        <v>3.706090674847076</v>
       </c>
       <c r="G11">
-        <v>4.446808106297892</v>
+        <v>6.54265588102258</v>
       </c>
       <c r="H11">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I11">
-        <v>1545.692218128286</v>
+        <v>2274.200289161387</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1107.70346934897</v>
+        <v>1629.780832660842</v>
       </c>
       <c r="C12">
-        <v>0.02455677072862641</v>
+        <v>0.03613074740037091</v>
       </c>
       <c r="D12">
-        <v>9.068842764926639</v>
+        <v>13.34312523312685</v>
       </c>
       <c r="E12">
-        <v>5.499456507068056</v>
+        <v>8.091433360355209</v>
       </c>
       <c r="F12">
-        <v>2.248047558049319</v>
+        <v>3.307586301207604</v>
       </c>
       <c r="G12">
-        <v>9.782977833855361</v>
+        <v>14.39384293824968</v>
       </c>
       <c r="H12">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I12">
-        <v>1134.438320223671</v>
+        <v>1669.116222253186</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>966.1510990264851</v>
+        <v>1421.512693801546</v>
       </c>
       <c r="C13">
-        <v>0.01688277987593066</v>
+        <v>0.024839888837755</v>
       </c>
       <c r="D13">
-        <v>5.344139486474627</v>
+        <v>7.862913083806889</v>
       </c>
       <c r="E13">
-        <v>7.332608676090745</v>
+        <v>10.78857781380695</v>
       </c>
       <c r="F13">
-        <v>1.408415337573068</v>
+        <v>2.072222742925246</v>
       </c>
       <c r="G13">
-        <v>16.0085091826724</v>
+        <v>23.55356117168128</v>
       </c>
       <c r="H13">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I13">
-        <v>996.5390780893541</v>
+        <v>1466.222986032616</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>765.431335817882</v>
+        <v>1126.190676794712</v>
       </c>
       <c r="C14">
-        <v>0.01458058262012193</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D14">
-        <v>5.506083107276892</v>
+        <v>8.101183177255582</v>
       </c>
       <c r="E14">
-        <v>4.653386275211432</v>
+        <v>6.8465974587621</v>
       </c>
       <c r="F14">
-        <v>0.9479718618280262</v>
+        <v>1.394765307738146</v>
       </c>
       <c r="G14">
-        <v>12.45106269763409</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="H14">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I14">
-        <v>789.281843942635</v>
+        <v>1161.282289366612</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>540.7450337186996</v>
+        <v>795.6063293990045</v>
       </c>
       <c r="C15">
-        <v>0.02071977530227854</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D15">
-        <v>3.562759657649752</v>
+        <v>5.241942055871259</v>
       </c>
       <c r="E15">
-        <v>2.679222400879311</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F15">
-        <v>0.8125473101383081</v>
+        <v>1.195513120918411</v>
       </c>
       <c r="G15">
-        <v>10.67233945511494</v>
+        <v>15.7023741144542</v>
       </c>
       <c r="I15">
-        <v>558.4926223177841</v>
+        <v>821.7186243634123</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>332.5357271067901</v>
+        <v>489.2648341456484</v>
       </c>
       <c r="C16">
-        <v>0.01688277987593066</v>
+        <v>0.024839888837755</v>
       </c>
       <c r="D16">
-        <v>2.429154312033921</v>
+        <v>3.574051401730405</v>
       </c>
       <c r="E16">
-        <v>1.410117053094374</v>
+        <v>2.074726502655181</v>
       </c>
       <c r="F16">
-        <v>0.622952937772703</v>
+        <v>0.9165600593707817</v>
       </c>
       <c r="G16">
-        <v>9.782977833855361</v>
+        <v>14.39384293824968</v>
       </c>
       <c r="I16">
-        <v>346.7978120234224</v>
+        <v>510.2488549364921</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>258.38924741406</v>
+        <v>380.1719995050644</v>
       </c>
       <c r="C17">
-        <v>0.02378937164335685</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D17">
-        <v>0.8097181040113075</v>
+        <v>1.191350467243468</v>
       </c>
       <c r="E17">
-        <v>0.2820234106188747</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F17">
-        <v>0.3521038343932669</v>
+        <v>0.5180556857313114</v>
       </c>
       <c r="G17">
-        <v>11.56170107637451</v>
+        <v>17.01090529065873</v>
       </c>
       <c r="I17">
-        <v>271.4185832111013</v>
+        <v>399.3422579107731</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>168.5147265743869</v>
+        <v>247.9382605467812</v>
       </c>
       <c r="C18">
-        <v>0.02148717438754811</v>
+        <v>0.03161440397532454</v>
       </c>
       <c r="D18">
-        <v>1.457492587220353</v>
+        <v>2.144430841038243</v>
       </c>
       <c r="E18">
-        <v>0.5640468212377494</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F18">
-        <v>0.6500378481106465</v>
+        <v>0.9564104967347288</v>
       </c>
       <c r="G18">
-        <v>7.114892970076627</v>
+        <v>10.46824940963613</v>
       </c>
       <c r="I18">
-        <v>178.3226839754198</v>
+        <v>262.3688562992276</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>100.3598816043015</v>
+        <v>147.6610085034163</v>
       </c>
       <c r="C19">
-        <v>0.01918497713173939</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D19">
-        <v>1.943323449627137</v>
+        <v>2.859241121384323</v>
       </c>
       <c r="E19">
-        <v>0.1410117053094374</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F19">
-        <v>0.2979340137173797</v>
+        <v>0.4383548110034173</v>
       </c>
       <c r="G19">
-        <v>15.11914756141283</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="H19">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I19">
-        <v>117.9359680315365</v>
+        <v>173.5209697339554</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>121.3306031335586</v>
+        <v>178.5155475936824</v>
       </c>
       <c r="C20">
-        <v>0.01458058262012193</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D20">
-        <v>2.429154312033921</v>
+        <v>3.574051401730405</v>
       </c>
       <c r="E20">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F20">
-        <v>0.5958680274347593</v>
+        <v>0.8767096220068347</v>
       </c>
       <c r="G20">
-        <v>12.45106269763409</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="H20">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I20">
-        <v>137.2997885892463</v>
+        <v>202.0112511723509</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>208.2093066119092</v>
+        <v>306.3414952533564</v>
       </c>
       <c r="C21">
-        <v>0.00690659176742618</v>
+        <v>0.01016177270635432</v>
       </c>
       <c r="D21">
-        <v>3.400816036847491</v>
+        <v>5.003671962422564</v>
       </c>
       <c r="E21">
-        <v>0.9870819371660615</v>
+        <v>1.452308551858627</v>
       </c>
       <c r="F21">
-        <v>1.0563115031798</v>
+        <v>1.554167057193935</v>
       </c>
       <c r="G21">
-        <v>20.45531728897031</v>
+        <v>30.09621705270388</v>
       </c>
       <c r="I21">
-        <v>234.1157399698403</v>
+        <v>344.4580216502417</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>418.6654762448102</v>
+        <v>615.9888339806697</v>
       </c>
       <c r="C22">
-        <v>0.006139192682156604</v>
+        <v>0.009032686850092727</v>
       </c>
       <c r="D22">
-        <v>5.020252244870106</v>
+        <v>7.386372896909505</v>
       </c>
       <c r="E22">
-        <v>4.089339453973683</v>
+        <v>6.016706857700027</v>
       </c>
       <c r="F22">
-        <v>2.979340137173796</v>
+        <v>4.383548110034173</v>
       </c>
       <c r="G22">
-        <v>37.35318809290231</v>
+        <v>54.95830940058969</v>
       </c>
       <c r="H22">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I22">
-        <v>468.2247048064852</v>
+        <v>688.9060749447581</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>795.3895094311069</v>
+        <v>1170.268589780807</v>
       </c>
       <c r="C23">
-        <v>0.01381318353485236</v>
+        <v>0.02032354541270864</v>
       </c>
       <c r="D23">
-        <v>8.583011902519859</v>
+        <v>12.62831495278076</v>
       </c>
       <c r="E23">
-        <v>11.84498324599274</v>
+        <v>17.42770262230353</v>
       </c>
       <c r="F23">
-        <v>4.387755474746863</v>
+        <v>6.45577085295942</v>
       </c>
       <c r="G23">
-        <v>52.4723356543151</v>
+        <v>77.2033393960665</v>
       </c>
       <c r="H23">
-        <v>0.6658166404373267</v>
+        <v>0.9796260720291473</v>
       </c>
       <c r="I23">
-        <v>873.3572255326536</v>
+        <v>1284.983667222359</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1144.40223202517</v>
+        <v>1683.776276068807</v>
       </c>
       <c r="C24">
-        <v>0.02071977530227854</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D24">
-        <v>9.068842764926639</v>
+        <v>13.34312523312685</v>
       </c>
       <c r="E24">
-        <v>12.83206518315881</v>
+        <v>18.88001117416215</v>
       </c>
       <c r="F24">
-        <v>4.631519667788359</v>
+        <v>6.814424789234943</v>
       </c>
       <c r="G24">
-        <v>66.70212159446834</v>
+        <v>98.13983821533873</v>
       </c>
       <c r="H24">
-        <v>0.9987249606559904</v>
+        <v>1.469439108043721</v>
       </c>
       <c r="I24">
-        <v>1238.656225971471</v>
+        <v>1822.453599906832</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1244.013159289141</v>
+        <v>1830.335336747571</v>
       </c>
       <c r="C25">
-        <v>0.03530035792240048</v>
+        <v>0.05193794938803319</v>
       </c>
       <c r="D25">
-        <v>11.33605345615831</v>
+        <v>16.67890654140856</v>
       </c>
       <c r="E25">
-        <v>6.063503328305806</v>
+        <v>8.921323961417283</v>
       </c>
       <c r="F25">
-        <v>4.712774398802186</v>
+        <v>6.933976101326785</v>
       </c>
       <c r="G25">
-        <v>45.35744268423845</v>
+        <v>66.73508998643032</v>
       </c>
       <c r="H25">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I25">
-        <v>1311.962111274859</v>
+        <v>1930.309655335562</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1166.121907894757</v>
+        <v>1715.732762983725</v>
       </c>
       <c r="C26">
-        <v>0.03760255517820921</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D26">
-        <v>11.01216621455378</v>
+        <v>16.20236635451116</v>
       </c>
       <c r="E26">
-        <v>4.93540968583031</v>
+        <v>7.261542759293137</v>
       </c>
       <c r="F26">
-        <v>4.983623502181624</v>
+        <v>7.332480474966253</v>
       </c>
       <c r="G26">
-        <v>49.80425079053636</v>
+        <v>73.27774586745292</v>
       </c>
       <c r="H26">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I26">
-        <v>1237.338838403329</v>
+        <v>1820.515307694925</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1098.716017265004</v>
+        <v>1616.557458765013</v>
       </c>
       <c r="C27">
-        <v>0.04834614237198325</v>
+        <v>0.07113240894448022</v>
       </c>
       <c r="D27">
-        <v>13.4413205265877</v>
+        <v>19.77641775624157</v>
       </c>
       <c r="E27">
-        <v>1.974163874332123</v>
+        <v>2.904617103717254</v>
       </c>
       <c r="F27">
-        <v>5.471151888264608</v>
+        <v>8.049788347517302</v>
       </c>
       <c r="G27">
-        <v>43.57871944171936</v>
+        <v>64.11802763402129</v>
       </c>
       <c r="H27">
-        <v>1.165179120765322</v>
+        <v>1.714345626051008</v>
       </c>
       <c r="I27">
-        <v>1164.394898259045</v>
+        <v>1713.191787641506</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1113.695104071615</v>
+        <v>1638.59641525806</v>
       </c>
       <c r="C28">
-        <v>0.04450914694563538</v>
+        <v>0.06548697966317228</v>
       </c>
       <c r="D28">
-        <v>10.526335352147</v>
+        <v>15.48755607416509</v>
       </c>
       <c r="E28">
-        <v>1.974163874332123</v>
+        <v>2.904617103717254</v>
       </c>
       <c r="F28">
-        <v>4.902368771167793</v>
+        <v>7.212929162874412</v>
       </c>
       <c r="G28">
-        <v>46.24680430549805</v>
+        <v>68.04362116263492</v>
       </c>
       <c r="H28">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I28">
-        <v>1178.110586882179</v>
+        <v>1733.371887319146</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1162.377136193105</v>
+        <v>1710.223023860464</v>
       </c>
       <c r="C29">
-        <v>0.04757874328671369</v>
+        <v>0.07000332308821863</v>
       </c>
       <c r="D29">
-        <v>8.906899144124383</v>
+        <v>13.10485513967815</v>
       </c>
       <c r="E29">
-        <v>2.115175579641561</v>
+        <v>3.112089753982771</v>
       </c>
       <c r="F29">
-        <v>4.902368771167793</v>
+        <v>7.212929162874412</v>
       </c>
       <c r="G29">
-        <v>37.35318809290231</v>
+        <v>54.95830940058969</v>
       </c>
       <c r="H29">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I29">
-        <v>1216.146224284519</v>
+        <v>1789.334294688697</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1206.565442272611</v>
+        <v>1775.237945514953</v>
       </c>
       <c r="C30">
-        <v>0.04143955060455708</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D30">
-        <v>7.449406556904026</v>
+        <v>10.96042429863991</v>
       </c>
       <c r="E30">
-        <v>2.397198990260435</v>
+        <v>3.527035054513811</v>
       </c>
       <c r="F30">
-        <v>6.094104826037311</v>
+        <v>8.966348406888084</v>
       </c>
       <c r="G30">
-        <v>41.79999619920019</v>
+        <v>61.50096528161225</v>
       </c>
       <c r="H30">
-        <v>0.6658166404373267</v>
+        <v>0.9796260720291473</v>
       </c>
       <c r="I30">
-        <v>1265.013405036054</v>
+        <v>1861.233315264874</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1084.485884798721</v>
+        <v>1595.620450096619</v>
       </c>
       <c r="C31">
-        <v>0.04143955060455708</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D31">
-        <v>9.878560868937951</v>
+        <v>14.53447570037031</v>
       </c>
       <c r="E31">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F31">
-        <v>4.766944219478074</v>
+        <v>7.013676976054677</v>
       </c>
       <c r="G31">
-        <v>29.34893350156608</v>
+        <v>43.18152881474903</v>
       </c>
       <c r="H31">
-        <v>0.3329083202186633</v>
+        <v>0.4898130360145737</v>
       </c>
       <c r="I31">
-        <v>1131.392881955096</v>
+        <v>1664.635422964825</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1208.063350953272</v>
+        <v>1777.441841164258</v>
       </c>
       <c r="C32">
-        <v>0.03683515609293963</v>
+        <v>0.05419612110055635</v>
       </c>
       <c r="D32">
-        <v>14.89881311380805</v>
+        <v>21.92084859727982</v>
       </c>
       <c r="E32">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F32">
-        <v>5.471151888264608</v>
+        <v>8.049788347517302</v>
       </c>
       <c r="G32">
-        <v>27.57021025904693</v>
+        <v>40.56446646233999</v>
       </c>
       <c r="H32">
-        <v>0.7767860805102147</v>
+        <v>1.142897084034006</v>
       </c>
       <c r="I32">
-        <v>1259.355358146564</v>
+        <v>1852.908545481309</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1214.054985675917</v>
+        <v>1786.257423761477</v>
       </c>
       <c r="C33">
-        <v>0.03836995426347878</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D33">
-        <v>12.63160242257639</v>
+        <v>18.58506728899809</v>
       </c>
       <c r="E33">
-        <v>3.666304338045372</v>
+        <v>5.394288906903474</v>
       </c>
       <c r="F33">
-        <v>5.064878233195453</v>
+        <v>7.452031787058096</v>
       </c>
       <c r="G33">
-        <v>34.68510322912354</v>
+        <v>51.03271587197616</v>
       </c>
       <c r="H33">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I33">
-        <v>1270.862545213595</v>
+        <v>1869.839243487257</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1449.226648539727</v>
+        <v>2132.269040702318</v>
       </c>
       <c r="C34">
-        <v>0.03299816066659174</v>
+        <v>0.04855069181924841</v>
       </c>
       <c r="D34">
-        <v>11.01216621455378</v>
+        <v>16.20236635451116</v>
       </c>
       <c r="E34">
-        <v>7.473620381400178</v>
+        <v>10.99605046407247</v>
       </c>
       <c r="F34">
-        <v>4.225246012719201</v>
+        <v>6.216668228775738</v>
       </c>
       <c r="G34">
-        <v>19.56595566771072</v>
+        <v>28.78768587649937</v>
       </c>
       <c r="H34">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I34">
-        <v>1492.091482177143</v>
+        <v>2195.33671737802</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1512.887767467829</v>
+        <v>2225.934605797769</v>
       </c>
       <c r="C35">
-        <v>0.025324169813896</v>
+        <v>0.0372598332566325</v>
       </c>
       <c r="D35">
-        <v>9.068842764926639</v>
+        <v>13.34312523312685</v>
       </c>
       <c r="E35">
-        <v>8.31969061325681</v>
+        <v>12.24088636566558</v>
       </c>
       <c r="F35">
-        <v>3.277274150891177</v>
+        <v>4.821902921037591</v>
       </c>
       <c r="G35">
-        <v>12.45106269763409</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="H35">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I35">
-        <v>1546.473839624644</v>
+        <v>2275.350300665739</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1138.410597302526</v>
+        <v>1674.960693471588</v>
       </c>
       <c r="C36">
-        <v>0.02071977530227854</v>
+        <v>0.03048531811906295</v>
       </c>
       <c r="D36">
-        <v>9.230786385728901</v>
+        <v>13.58139532657554</v>
       </c>
       <c r="E36">
-        <v>8.742725729185118</v>
+        <v>12.86330431646213</v>
       </c>
       <c r="F36">
-        <v>2.031368275345771</v>
+        <v>2.988782802296027</v>
       </c>
       <c r="G36">
-        <v>11.56170107637451</v>
+        <v>17.01090529065873</v>
       </c>
       <c r="H36">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I36">
-        <v>1170.275322144644</v>
+        <v>1721.843744055712</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1056.774574206489</v>
+        <v>1554.848380584481</v>
       </c>
       <c r="C37">
-        <v>0.01918497713173939</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D37">
-        <v>5.344139486474627</v>
+        <v>7.862913083806889</v>
       </c>
       <c r="E37">
-        <v>8.601714023875685</v>
+        <v>12.65583166619661</v>
       </c>
       <c r="F37">
-        <v>1.760519171966335</v>
+        <v>2.590278428656557</v>
       </c>
       <c r="G37">
-        <v>15.11914756141283</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="H37">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I37">
-        <v>1087.730248867423</v>
+        <v>1600.393931917029</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>840.326769850943</v>
+        <v>1236.385459259949</v>
       </c>
       <c r="C38">
-        <v>0.01151098627904363</v>
+        <v>0.01693628784392387</v>
       </c>
       <c r="D38">
-        <v>4.372477761661061</v>
+        <v>6.433292523114726</v>
       </c>
       <c r="E38">
-        <v>5.922491622996372</v>
+        <v>8.713851311151764</v>
       </c>
       <c r="F38">
-        <v>1.137566234193631</v>
+        <v>1.673718369285776</v>
       </c>
       <c r="G38">
-        <v>15.11914756141283</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="H38">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I38">
-        <v>867.0009334575589</v>
+        <v>1275.631558758826</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>601.4103352854787</v>
+        <v>884.8641031958456</v>
       </c>
       <c r="C39">
-        <v>0.01611538079066109</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D39">
-        <v>2.105267070429399</v>
+        <v>3.097511214833018</v>
       </c>
       <c r="E39">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F39">
-        <v>0.8125473101383081</v>
+        <v>1.195513120918411</v>
       </c>
       <c r="G39">
-        <v>8.893616212595784</v>
+        <v>13.08531176204516</v>
       </c>
       <c r="H39">
-        <v>0.1664541601093317</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I39">
-        <v>615.942546115112</v>
+        <v>906.2455643194103</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>354.2554029763779</v>
+        <v>521.2213210605663</v>
       </c>
       <c r="C40">
-        <v>0.01841757804646981</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D40">
-        <v>2.26721069123166</v>
+        <v>3.335781308281712</v>
       </c>
       <c r="E40">
-        <v>1.128093642475499</v>
+        <v>1.659781202124144</v>
       </c>
       <c r="F40">
-        <v>0.6500378481106465</v>
+        <v>0.9564104967347288</v>
       </c>
       <c r="G40">
-        <v>12.45106269763409</v>
+        <v>18.31943646686323</v>
       </c>
       <c r="I40">
-        <v>370.7702254338762</v>
+        <v>545.5198285951204</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>273.3683342206722</v>
+        <v>402.2109559981118</v>
       </c>
       <c r="C41">
-        <v>0.01918497713173939</v>
+        <v>0.02822714640653977</v>
       </c>
       <c r="D41">
-        <v>0.8097181040113075</v>
+        <v>1.191350467243468</v>
       </c>
       <c r="E41">
-        <v>0.5640468212377494</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F41">
-        <v>0.5146132964209285</v>
+        <v>0.7571583099149936</v>
       </c>
       <c r="G41">
-        <v>15.11914756141283</v>
+        <v>22.24502999547677</v>
       </c>
       <c r="I41">
-        <v>290.3950449808867</v>
+        <v>427.2626125182156</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>177.5021786583543</v>
+        <v>261.1616344426096</v>
       </c>
       <c r="C42">
-        <v>0.02148717438754811</v>
+        <v>0.03161440397532454</v>
       </c>
       <c r="D42">
-        <v>1.295548966418092</v>
+        <v>1.906160747589549</v>
       </c>
       <c r="E42">
-        <v>0.7050585265471869</v>
+        <v>1.03736325132759</v>
       </c>
       <c r="F42">
-        <v>0.5416982067588721</v>
+        <v>0.7970087472789407</v>
       </c>
       <c r="G42">
-        <v>13.34042431889368</v>
+        <v>19.62796764306773</v>
       </c>
       <c r="I42">
-        <v>193.4063958513596</v>
+        <v>284.5617492358487</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>124.326420494881</v>
+        <v>182.9233388922918</v>
       </c>
       <c r="C43">
-        <v>0.02378937164335685</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D43">
-        <v>2.429154312033921</v>
+        <v>3.574051401730405</v>
       </c>
       <c r="E43">
-        <v>0.2820234106188747</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F43">
-        <v>0.4333585654070978</v>
+        <v>0.6376069978231527</v>
       </c>
       <c r="G43">
-        <v>8.893616212595784</v>
+        <v>13.08531176204516</v>
       </c>
       <c r="H43">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I43">
-        <v>136.4438470872165</v>
+        <v>200.7518915219681</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>137.8075986208321</v>
+        <v>202.7583997360342</v>
       </c>
       <c r="C44">
-        <v>0.02378937164335685</v>
+        <v>0.03500166154410932</v>
       </c>
       <c r="D44">
-        <v>1.619436208022615</v>
+        <v>2.382700934486937</v>
       </c>
       <c r="E44">
-        <v>0.5640468212377494</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F44">
-        <v>0.5958680274347593</v>
+        <v>0.8767096220068347</v>
       </c>
       <c r="G44">
-        <v>5.336169727557468</v>
+        <v>7.851187057227101</v>
       </c>
       <c r="I44">
-        <v>145.946908776728</v>
+        <v>214.7338896123613</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>185.7406764019909</v>
+        <v>273.2830605137854</v>
       </c>
       <c r="C45">
-        <v>0.007673990852695755</v>
+        <v>0.01129085856261591</v>
       </c>
       <c r="D45">
-        <v>3.076928795242968</v>
+        <v>4.527131775525176</v>
       </c>
       <c r="E45">
-        <v>0.8460702318566243</v>
+        <v>1.244835901593109</v>
       </c>
       <c r="F45">
-        <v>1.002141682503913</v>
+        <v>1.47446618246604</v>
       </c>
       <c r="G45">
-        <v>11.56170107637451</v>
+        <v>17.01090529065873</v>
       </c>
       <c r="H45">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I45">
-        <v>202.4571310589674</v>
+        <v>297.8782325466008</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>431.3977000304305</v>
+        <v>634.7219469997598</v>
       </c>
       <c r="C46">
-        <v>0.006139192682156604</v>
+        <v>0.009032686850092727</v>
       </c>
       <c r="D46">
-        <v>4.858308624067842</v>
+        <v>7.148102803460811</v>
       </c>
       <c r="E46">
-        <v>4.230351159283122</v>
+        <v>6.224179507965543</v>
       </c>
       <c r="F46">
-        <v>3.087679778525571</v>
+        <v>4.542949859489962</v>
       </c>
       <c r="G46">
-        <v>39.13191133542144</v>
+        <v>57.57537175299873</v>
       </c>
       <c r="H46">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I46">
-        <v>482.8230595604835</v>
+        <v>710.3848546225298</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>820.1050026620165</v>
+        <v>1206.632867994335</v>
       </c>
       <c r="C47">
-        <v>0.01304578444958278</v>
+        <v>0.01919445955644704</v>
       </c>
       <c r="D47">
-        <v>8.259124660915337</v>
+        <v>12.15177476588337</v>
       </c>
       <c r="E47">
-        <v>12.26801836192105</v>
+        <v>18.05012057310008</v>
       </c>
       <c r="F47">
-        <v>4.550264936774526</v>
+        <v>6.694873477143102</v>
       </c>
       <c r="G47">
-        <v>55.14042051809386</v>
+        <v>81.12893292467999</v>
       </c>
       <c r="H47">
-        <v>0.6103319204008828</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I47">
-        <v>900.9462088445716</v>
+        <v>1325.575754760725</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1179.603086020708</v>
+        <v>1735.567823827467</v>
       </c>
       <c r="C48">
-        <v>0.01995237621700896</v>
+        <v>0.02935623226280137</v>
       </c>
       <c r="D48">
-        <v>8.744955523322123</v>
+        <v>12.86658504622945</v>
       </c>
       <c r="E48">
-        <v>13.39611200439655</v>
+        <v>19.70990177522422</v>
       </c>
       <c r="F48">
-        <v>4.794029129816019</v>
+        <v>7.053527413418625</v>
       </c>
       <c r="G48">
-        <v>70.25956807950671</v>
+        <v>103.3739629201568</v>
       </c>
       <c r="H48">
-        <v>0.9432402406195465</v>
+        <v>1.387803602041292</v>
       </c>
       <c r="I48">
-        <v>1277.760943374586</v>
+        <v>1879.9889608168</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1282.958784986332</v>
+        <v>1887.636623629494</v>
       </c>
       <c r="C49">
-        <v>0.03453295883713089</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D49">
-        <v>11.01216621455378</v>
+        <v>16.20236635451116</v>
       </c>
       <c r="E49">
-        <v>6.345526738924681</v>
+        <v>9.336269261948322</v>
       </c>
       <c r="F49">
-        <v>4.902368771167793</v>
+        <v>7.212929162874412</v>
       </c>
       <c r="G49">
-        <v>48.02552754801723</v>
+        <v>70.66068351504391</v>
       </c>
       <c r="H49">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I49">
-        <v>1353.667300258088</v>
+        <v>1991.671129329421</v>
       </c>
     </row>
   </sheetData>
